--- a/woomera_demo/parameters.xlsx
+++ b/woomera_demo/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\HelioSoil\data\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody1\GitHub\HelioSoil\woomera_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFB054-D678-43B7-BE34-4F3636216A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12345C8-0D5A-4BCB-8817-388D9958DC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19180" yWindow="6220" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3465" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>Parameter</t>
   </si>
@@ -243,9 +243,6 @@
     <t>hours before GMT. Make sure that this is the same as the SolarPILOT file</t>
   </si>
   <si>
-    <t>receiver_diameter</t>
-  </si>
-  <si>
     <t>receiver_tower_height</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>height of receiver tower (from paper)</t>
   </si>
   <si>
-    <t>diameter of the receiver</t>
-  </si>
-  <si>
     <t>MWt</t>
   </si>
   <si>
@@ -316,6 +310,21 @@
   </si>
   <si>
     <t>Either "geometry" or "mie"</t>
+  </si>
+  <si>
+    <t>receiver_type</t>
+  </si>
+  <si>
+    <t>External cylindrical</t>
+  </si>
+  <si>
+    <t>shape of receiver [External cylindrical] or [Flat plate]</t>
+  </si>
+  <si>
+    <t>receiver_width_diameter</t>
+  </si>
+  <si>
+    <t>width of receiver [flat plate] or diameter of receiver [external receiver]</t>
   </si>
 </sst>
 </file>
@@ -1181,21 +1190,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:XFB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,13 +1218,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1279,13 +1288,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1313,392 +1322,4501 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="2">
+        <v>93</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BV11" s="2"/>
+      <c r="BZ11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CT11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="DB11" s="2"/>
+      <c r="DF11" s="2"/>
+      <c r="DJ11" s="2"/>
+      <c r="DN11" s="2"/>
+      <c r="DR11" s="2"/>
+      <c r="DV11" s="2"/>
+      <c r="DZ11" s="2"/>
+      <c r="ED11" s="2"/>
+      <c r="EH11" s="2"/>
+      <c r="EL11" s="2"/>
+      <c r="EP11" s="2"/>
+      <c r="ET11" s="2"/>
+      <c r="EX11" s="2"/>
+      <c r="FB11" s="2"/>
+      <c r="FF11" s="2"/>
+      <c r="FJ11" s="2"/>
+      <c r="FN11" s="2"/>
+      <c r="FR11" s="2"/>
+      <c r="FV11" s="2"/>
+      <c r="FZ11" s="2"/>
+      <c r="GD11" s="2"/>
+      <c r="GH11" s="2"/>
+      <c r="GL11" s="2"/>
+      <c r="GP11" s="2"/>
+      <c r="GT11" s="2"/>
+      <c r="GX11" s="2"/>
+      <c r="HB11" s="2"/>
+      <c r="HF11" s="2"/>
+      <c r="HJ11" s="2"/>
+      <c r="HN11" s="2"/>
+      <c r="HR11" s="2"/>
+      <c r="HV11" s="2"/>
+      <c r="HZ11" s="2"/>
+      <c r="ID11" s="2"/>
+      <c r="IH11" s="2"/>
+      <c r="IL11" s="2"/>
+      <c r="IP11" s="2"/>
+      <c r="IT11" s="2"/>
+      <c r="IX11" s="2"/>
+      <c r="JB11" s="2"/>
+      <c r="JF11" s="2"/>
+      <c r="JJ11" s="2"/>
+      <c r="JN11" s="2"/>
+      <c r="JR11" s="2"/>
+      <c r="JV11" s="2"/>
+      <c r="JZ11" s="2"/>
+      <c r="KD11" s="2"/>
+      <c r="KH11" s="2"/>
+      <c r="KL11" s="2"/>
+      <c r="KP11" s="2"/>
+      <c r="KT11" s="2"/>
+      <c r="KX11" s="2"/>
+      <c r="LB11" s="2"/>
+      <c r="LF11" s="2"/>
+      <c r="LJ11" s="2"/>
+      <c r="LN11" s="2"/>
+      <c r="LR11" s="2"/>
+      <c r="LV11" s="2"/>
+      <c r="LZ11" s="2"/>
+      <c r="MD11" s="2"/>
+      <c r="MH11" s="2"/>
+      <c r="ML11" s="2"/>
+      <c r="MP11" s="2"/>
+      <c r="MT11" s="2"/>
+      <c r="MX11" s="2"/>
+      <c r="NB11" s="2"/>
+      <c r="NF11" s="2"/>
+      <c r="NJ11" s="2"/>
+      <c r="NN11" s="2"/>
+      <c r="NR11" s="2"/>
+      <c r="NV11" s="2"/>
+      <c r="NZ11" s="2"/>
+      <c r="OD11" s="2"/>
+      <c r="OH11" s="2"/>
+      <c r="OL11" s="2"/>
+      <c r="OP11" s="2"/>
+      <c r="OT11" s="2"/>
+      <c r="OX11" s="2"/>
+      <c r="PB11" s="2"/>
+      <c r="PF11" s="2"/>
+      <c r="PJ11" s="2"/>
+      <c r="PN11" s="2"/>
+      <c r="PR11" s="2"/>
+      <c r="PV11" s="2"/>
+      <c r="PZ11" s="2"/>
+      <c r="QD11" s="2"/>
+      <c r="QH11" s="2"/>
+      <c r="QL11" s="2"/>
+      <c r="QP11" s="2"/>
+      <c r="QT11" s="2"/>
+      <c r="QX11" s="2"/>
+      <c r="RB11" s="2"/>
+      <c r="RF11" s="2"/>
+      <c r="RJ11" s="2"/>
+      <c r="RN11" s="2"/>
+      <c r="RR11" s="2"/>
+      <c r="RV11" s="2"/>
+      <c r="RZ11" s="2"/>
+      <c r="SD11" s="2"/>
+      <c r="SH11" s="2"/>
+      <c r="SL11" s="2"/>
+      <c r="SP11" s="2"/>
+      <c r="ST11" s="2"/>
+      <c r="SX11" s="2"/>
+      <c r="TB11" s="2"/>
+      <c r="TF11" s="2"/>
+      <c r="TJ11" s="2"/>
+      <c r="TN11" s="2"/>
+      <c r="TR11" s="2"/>
+      <c r="TV11" s="2"/>
+      <c r="TZ11" s="2"/>
+      <c r="UD11" s="2"/>
+      <c r="UH11" s="2"/>
+      <c r="UL11" s="2"/>
+      <c r="UP11" s="2"/>
+      <c r="UT11" s="2"/>
+      <c r="UX11" s="2"/>
+      <c r="VB11" s="2"/>
+      <c r="VF11" s="2"/>
+      <c r="VJ11" s="2"/>
+      <c r="VN11" s="2"/>
+      <c r="VR11" s="2"/>
+      <c r="VV11" s="2"/>
+      <c r="VZ11" s="2"/>
+      <c r="WD11" s="2"/>
+      <c r="WH11" s="2"/>
+      <c r="WL11" s="2"/>
+      <c r="WP11" s="2"/>
+      <c r="WT11" s="2"/>
+      <c r="WX11" s="2"/>
+      <c r="XB11" s="2"/>
+      <c r="XF11" s="2"/>
+      <c r="XJ11" s="2"/>
+      <c r="XN11" s="2"/>
+      <c r="XR11" s="2"/>
+      <c r="XV11" s="2"/>
+      <c r="XZ11" s="2"/>
+      <c r="YD11" s="2"/>
+      <c r="YH11" s="2"/>
+      <c r="YL11" s="2"/>
+      <c r="YP11" s="2"/>
+      <c r="YT11" s="2"/>
+      <c r="YX11" s="2"/>
+      <c r="ZB11" s="2"/>
+      <c r="ZF11" s="2"/>
+      <c r="ZJ11" s="2"/>
+      <c r="ZN11" s="2"/>
+      <c r="ZR11" s="2"/>
+      <c r="ZV11" s="2"/>
+      <c r="ZZ11" s="2"/>
+      <c r="AAD11" s="2"/>
+      <c r="AAH11" s="2"/>
+      <c r="AAL11" s="2"/>
+      <c r="AAP11" s="2"/>
+      <c r="AAT11" s="2"/>
+      <c r="AAX11" s="2"/>
+      <c r="ABB11" s="2"/>
+      <c r="ABF11" s="2"/>
+      <c r="ABJ11" s="2"/>
+      <c r="ABN11" s="2"/>
+      <c r="ABR11" s="2"/>
+      <c r="ABV11" s="2"/>
+      <c r="ABZ11" s="2"/>
+      <c r="ACD11" s="2"/>
+      <c r="ACH11" s="2"/>
+      <c r="ACL11" s="2"/>
+      <c r="ACP11" s="2"/>
+      <c r="ACT11" s="2"/>
+      <c r="ACX11" s="2"/>
+      <c r="ADB11" s="2"/>
+      <c r="ADF11" s="2"/>
+      <c r="ADJ11" s="2"/>
+      <c r="ADN11" s="2"/>
+      <c r="ADR11" s="2"/>
+      <c r="ADV11" s="2"/>
+      <c r="ADZ11" s="2"/>
+      <c r="AED11" s="2"/>
+      <c r="AEH11" s="2"/>
+      <c r="AEL11" s="2"/>
+      <c r="AEP11" s="2"/>
+      <c r="AET11" s="2"/>
+      <c r="AEX11" s="2"/>
+      <c r="AFB11" s="2"/>
+      <c r="AFF11" s="2"/>
+      <c r="AFJ11" s="2"/>
+      <c r="AFN11" s="2"/>
+      <c r="AFR11" s="2"/>
+      <c r="AFV11" s="2"/>
+      <c r="AFZ11" s="2"/>
+      <c r="AGD11" s="2"/>
+      <c r="AGH11" s="2"/>
+      <c r="AGL11" s="2"/>
+      <c r="AGP11" s="2"/>
+      <c r="AGT11" s="2"/>
+      <c r="AGX11" s="2"/>
+      <c r="AHB11" s="2"/>
+      <c r="AHF11" s="2"/>
+      <c r="AHJ11" s="2"/>
+      <c r="AHN11" s="2"/>
+      <c r="AHR11" s="2"/>
+      <c r="AHV11" s="2"/>
+      <c r="AHZ11" s="2"/>
+      <c r="AID11" s="2"/>
+      <c r="AIH11" s="2"/>
+      <c r="AIL11" s="2"/>
+      <c r="AIP11" s="2"/>
+      <c r="AIT11" s="2"/>
+      <c r="AIX11" s="2"/>
+      <c r="AJB11" s="2"/>
+      <c r="AJF11" s="2"/>
+      <c r="AJJ11" s="2"/>
+      <c r="AJN11" s="2"/>
+      <c r="AJR11" s="2"/>
+      <c r="AJV11" s="2"/>
+      <c r="AJZ11" s="2"/>
+      <c r="AKD11" s="2"/>
+      <c r="AKH11" s="2"/>
+      <c r="AKL11" s="2"/>
+      <c r="AKP11" s="2"/>
+      <c r="AKT11" s="2"/>
+      <c r="AKX11" s="2"/>
+      <c r="ALB11" s="2"/>
+      <c r="ALF11" s="2"/>
+      <c r="ALJ11" s="2"/>
+      <c r="ALN11" s="2"/>
+      <c r="ALR11" s="2"/>
+      <c r="ALV11" s="2"/>
+      <c r="ALZ11" s="2"/>
+      <c r="AMD11" s="2"/>
+      <c r="AMH11" s="2"/>
+      <c r="AML11" s="2"/>
+      <c r="AMP11" s="2"/>
+      <c r="AMT11" s="2"/>
+      <c r="AMX11" s="2"/>
+      <c r="ANB11" s="2"/>
+      <c r="ANF11" s="2"/>
+      <c r="ANJ11" s="2"/>
+      <c r="ANN11" s="2"/>
+      <c r="ANR11" s="2"/>
+      <c r="ANV11" s="2"/>
+      <c r="ANZ11" s="2"/>
+      <c r="AOD11" s="2"/>
+      <c r="AOH11" s="2"/>
+      <c r="AOL11" s="2"/>
+      <c r="AOP11" s="2"/>
+      <c r="AOT11" s="2"/>
+      <c r="AOX11" s="2"/>
+      <c r="APB11" s="2"/>
+      <c r="APF11" s="2"/>
+      <c r="APJ11" s="2"/>
+      <c r="APN11" s="2"/>
+      <c r="APR11" s="2"/>
+      <c r="APV11" s="2"/>
+      <c r="APZ11" s="2"/>
+      <c r="AQD11" s="2"/>
+      <c r="AQH11" s="2"/>
+      <c r="AQL11" s="2"/>
+      <c r="AQP11" s="2"/>
+      <c r="AQT11" s="2"/>
+      <c r="AQX11" s="2"/>
+      <c r="ARB11" s="2"/>
+      <c r="ARF11" s="2"/>
+      <c r="ARJ11" s="2"/>
+      <c r="ARN11" s="2"/>
+      <c r="ARR11" s="2"/>
+      <c r="ARV11" s="2"/>
+      <c r="ARZ11" s="2"/>
+      <c r="ASD11" s="2"/>
+      <c r="ASH11" s="2"/>
+      <c r="ASL11" s="2"/>
+      <c r="ASP11" s="2"/>
+      <c r="AST11" s="2"/>
+      <c r="ASX11" s="2"/>
+      <c r="ATB11" s="2"/>
+      <c r="ATF11" s="2"/>
+      <c r="ATJ11" s="2"/>
+      <c r="ATN11" s="2"/>
+      <c r="ATR11" s="2"/>
+      <c r="ATV11" s="2"/>
+      <c r="ATZ11" s="2"/>
+      <c r="AUD11" s="2"/>
+      <c r="AUH11" s="2"/>
+      <c r="AUL11" s="2"/>
+      <c r="AUP11" s="2"/>
+      <c r="AUT11" s="2"/>
+      <c r="AUX11" s="2"/>
+      <c r="AVB11" s="2"/>
+      <c r="AVF11" s="2"/>
+      <c r="AVJ11" s="2"/>
+      <c r="AVN11" s="2"/>
+      <c r="AVR11" s="2"/>
+      <c r="AVV11" s="2"/>
+      <c r="AVZ11" s="2"/>
+      <c r="AWD11" s="2"/>
+      <c r="AWH11" s="2"/>
+      <c r="AWL11" s="2"/>
+      <c r="AWP11" s="2"/>
+      <c r="AWT11" s="2"/>
+      <c r="AWX11" s="2"/>
+      <c r="AXB11" s="2"/>
+      <c r="AXF11" s="2"/>
+      <c r="AXJ11" s="2"/>
+      <c r="AXN11" s="2"/>
+      <c r="AXR11" s="2"/>
+      <c r="AXV11" s="2"/>
+      <c r="AXZ11" s="2"/>
+      <c r="AYD11" s="2"/>
+      <c r="AYH11" s="2"/>
+      <c r="AYL11" s="2"/>
+      <c r="AYP11" s="2"/>
+      <c r="AYT11" s="2"/>
+      <c r="AYX11" s="2"/>
+      <c r="AZB11" s="2"/>
+      <c r="AZF11" s="2"/>
+      <c r="AZJ11" s="2"/>
+      <c r="AZN11" s="2"/>
+      <c r="AZR11" s="2"/>
+      <c r="AZV11" s="2"/>
+      <c r="AZZ11" s="2"/>
+      <c r="BAD11" s="2"/>
+      <c r="BAH11" s="2"/>
+      <c r="BAL11" s="2"/>
+      <c r="BAP11" s="2"/>
+      <c r="BAT11" s="2"/>
+      <c r="BAX11" s="2"/>
+      <c r="BBB11" s="2"/>
+      <c r="BBF11" s="2"/>
+      <c r="BBJ11" s="2"/>
+      <c r="BBN11" s="2"/>
+      <c r="BBR11" s="2"/>
+      <c r="BBV11" s="2"/>
+      <c r="BBZ11" s="2"/>
+      <c r="BCD11" s="2"/>
+      <c r="BCH11" s="2"/>
+      <c r="BCL11" s="2"/>
+      <c r="BCP11" s="2"/>
+      <c r="BCT11" s="2"/>
+      <c r="BCX11" s="2"/>
+      <c r="BDB11" s="2"/>
+      <c r="BDF11" s="2"/>
+      <c r="BDJ11" s="2"/>
+      <c r="BDN11" s="2"/>
+      <c r="BDR11" s="2"/>
+      <c r="BDV11" s="2"/>
+      <c r="BDZ11" s="2"/>
+      <c r="BED11" s="2"/>
+      <c r="BEH11" s="2"/>
+      <c r="BEL11" s="2"/>
+      <c r="BEP11" s="2"/>
+      <c r="BET11" s="2"/>
+      <c r="BEX11" s="2"/>
+      <c r="BFB11" s="2"/>
+      <c r="BFF11" s="2"/>
+      <c r="BFJ11" s="2"/>
+      <c r="BFN11" s="2"/>
+      <c r="BFR11" s="2"/>
+      <c r="BFV11" s="2"/>
+      <c r="BFZ11" s="2"/>
+      <c r="BGD11" s="2"/>
+      <c r="BGH11" s="2"/>
+      <c r="BGL11" s="2"/>
+      <c r="BGP11" s="2"/>
+      <c r="BGT11" s="2"/>
+      <c r="BGX11" s="2"/>
+      <c r="BHB11" s="2"/>
+      <c r="BHF11" s="2"/>
+      <c r="BHJ11" s="2"/>
+      <c r="BHN11" s="2"/>
+      <c r="BHR11" s="2"/>
+      <c r="BHV11" s="2"/>
+      <c r="BHZ11" s="2"/>
+      <c r="BID11" s="2"/>
+      <c r="BIH11" s="2"/>
+      <c r="BIL11" s="2"/>
+      <c r="BIP11" s="2"/>
+      <c r="BIT11" s="2"/>
+      <c r="BIX11" s="2"/>
+      <c r="BJB11" s="2"/>
+      <c r="BJF11" s="2"/>
+      <c r="BJJ11" s="2"/>
+      <c r="BJN11" s="2"/>
+      <c r="BJR11" s="2"/>
+      <c r="BJV11" s="2"/>
+      <c r="BJZ11" s="2"/>
+      <c r="BKD11" s="2"/>
+      <c r="BKH11" s="2"/>
+      <c r="BKL11" s="2"/>
+      <c r="BKP11" s="2"/>
+      <c r="BKT11" s="2"/>
+      <c r="BKX11" s="2"/>
+      <c r="BLB11" s="2"/>
+      <c r="BLF11" s="2"/>
+      <c r="BLJ11" s="2"/>
+      <c r="BLN11" s="2"/>
+      <c r="BLR11" s="2"/>
+      <c r="BLV11" s="2"/>
+      <c r="BLZ11" s="2"/>
+      <c r="BMD11" s="2"/>
+      <c r="BMH11" s="2"/>
+      <c r="BML11" s="2"/>
+      <c r="BMP11" s="2"/>
+      <c r="BMT11" s="2"/>
+      <c r="BMX11" s="2"/>
+      <c r="BNB11" s="2"/>
+      <c r="BNF11" s="2"/>
+      <c r="BNJ11" s="2"/>
+      <c r="BNN11" s="2"/>
+      <c r="BNR11" s="2"/>
+      <c r="BNV11" s="2"/>
+      <c r="BNZ11" s="2"/>
+      <c r="BOD11" s="2"/>
+      <c r="BOH11" s="2"/>
+      <c r="BOL11" s="2"/>
+      <c r="BOP11" s="2"/>
+      <c r="BOT11" s="2"/>
+      <c r="BOX11" s="2"/>
+      <c r="BPB11" s="2"/>
+      <c r="BPF11" s="2"/>
+      <c r="BPJ11" s="2"/>
+      <c r="BPN11" s="2"/>
+      <c r="BPR11" s="2"/>
+      <c r="BPV11" s="2"/>
+      <c r="BPZ11" s="2"/>
+      <c r="BQD11" s="2"/>
+      <c r="BQH11" s="2"/>
+      <c r="BQL11" s="2"/>
+      <c r="BQP11" s="2"/>
+      <c r="BQT11" s="2"/>
+      <c r="BQX11" s="2"/>
+      <c r="BRB11" s="2"/>
+      <c r="BRF11" s="2"/>
+      <c r="BRJ11" s="2"/>
+      <c r="BRN11" s="2"/>
+      <c r="BRR11" s="2"/>
+      <c r="BRV11" s="2"/>
+      <c r="BRZ11" s="2"/>
+      <c r="BSD11" s="2"/>
+      <c r="BSH11" s="2"/>
+      <c r="BSL11" s="2"/>
+      <c r="BSP11" s="2"/>
+      <c r="BST11" s="2"/>
+      <c r="BSX11" s="2"/>
+      <c r="BTB11" s="2"/>
+      <c r="BTF11" s="2"/>
+      <c r="BTJ11" s="2"/>
+      <c r="BTN11" s="2"/>
+      <c r="BTR11" s="2"/>
+      <c r="BTV11" s="2"/>
+      <c r="BTZ11" s="2"/>
+      <c r="BUD11" s="2"/>
+      <c r="BUH11" s="2"/>
+      <c r="BUL11" s="2"/>
+      <c r="BUP11" s="2"/>
+      <c r="BUT11" s="2"/>
+      <c r="BUX11" s="2"/>
+      <c r="BVB11" s="2"/>
+      <c r="BVF11" s="2"/>
+      <c r="BVJ11" s="2"/>
+      <c r="BVN11" s="2"/>
+      <c r="BVR11" s="2"/>
+      <c r="BVV11" s="2"/>
+      <c r="BVZ11" s="2"/>
+      <c r="BWD11" s="2"/>
+      <c r="BWH11" s="2"/>
+      <c r="BWL11" s="2"/>
+      <c r="BWP11" s="2"/>
+      <c r="BWT11" s="2"/>
+      <c r="BWX11" s="2"/>
+      <c r="BXB11" s="2"/>
+      <c r="BXF11" s="2"/>
+      <c r="BXJ11" s="2"/>
+      <c r="BXN11" s="2"/>
+      <c r="BXR11" s="2"/>
+      <c r="BXV11" s="2"/>
+      <c r="BXZ11" s="2"/>
+      <c r="BYD11" s="2"/>
+      <c r="BYH11" s="2"/>
+      <c r="BYL11" s="2"/>
+      <c r="BYP11" s="2"/>
+      <c r="BYT11" s="2"/>
+      <c r="BYX11" s="2"/>
+      <c r="BZB11" s="2"/>
+      <c r="BZF11" s="2"/>
+      <c r="BZJ11" s="2"/>
+      <c r="BZN11" s="2"/>
+      <c r="BZR11" s="2"/>
+      <c r="BZV11" s="2"/>
+      <c r="BZZ11" s="2"/>
+      <c r="CAD11" s="2"/>
+      <c r="CAH11" s="2"/>
+      <c r="CAL11" s="2"/>
+      <c r="CAP11" s="2"/>
+      <c r="CAT11" s="2"/>
+      <c r="CAX11" s="2"/>
+      <c r="CBB11" s="2"/>
+      <c r="CBF11" s="2"/>
+      <c r="CBJ11" s="2"/>
+      <c r="CBN11" s="2"/>
+      <c r="CBR11" s="2"/>
+      <c r="CBV11" s="2"/>
+      <c r="CBZ11" s="2"/>
+      <c r="CCD11" s="2"/>
+      <c r="CCH11" s="2"/>
+      <c r="CCL11" s="2"/>
+      <c r="CCP11" s="2"/>
+      <c r="CCT11" s="2"/>
+      <c r="CCX11" s="2"/>
+      <c r="CDB11" s="2"/>
+      <c r="CDF11" s="2"/>
+      <c r="CDJ11" s="2"/>
+      <c r="CDN11" s="2"/>
+      <c r="CDR11" s="2"/>
+      <c r="CDV11" s="2"/>
+      <c r="CDZ11" s="2"/>
+      <c r="CED11" s="2"/>
+      <c r="CEH11" s="2"/>
+      <c r="CEL11" s="2"/>
+      <c r="CEP11" s="2"/>
+      <c r="CET11" s="2"/>
+      <c r="CEX11" s="2"/>
+      <c r="CFB11" s="2"/>
+      <c r="CFF11" s="2"/>
+      <c r="CFJ11" s="2"/>
+      <c r="CFN11" s="2"/>
+      <c r="CFR11" s="2"/>
+      <c r="CFV11" s="2"/>
+      <c r="CFZ11" s="2"/>
+      <c r="CGD11" s="2"/>
+      <c r="CGH11" s="2"/>
+      <c r="CGL11" s="2"/>
+      <c r="CGP11" s="2"/>
+      <c r="CGT11" s="2"/>
+      <c r="CGX11" s="2"/>
+      <c r="CHB11" s="2"/>
+      <c r="CHF11" s="2"/>
+      <c r="CHJ11" s="2"/>
+      <c r="CHN11" s="2"/>
+      <c r="CHR11" s="2"/>
+      <c r="CHV11" s="2"/>
+      <c r="CHZ11" s="2"/>
+      <c r="CID11" s="2"/>
+      <c r="CIH11" s="2"/>
+      <c r="CIL11" s="2"/>
+      <c r="CIP11" s="2"/>
+      <c r="CIT11" s="2"/>
+      <c r="CIX11" s="2"/>
+      <c r="CJB11" s="2"/>
+      <c r="CJF11" s="2"/>
+      <c r="CJJ11" s="2"/>
+      <c r="CJN11" s="2"/>
+      <c r="CJR11" s="2"/>
+      <c r="CJV11" s="2"/>
+      <c r="CJZ11" s="2"/>
+      <c r="CKD11" s="2"/>
+      <c r="CKH11" s="2"/>
+      <c r="CKL11" s="2"/>
+      <c r="CKP11" s="2"/>
+      <c r="CKT11" s="2"/>
+      <c r="CKX11" s="2"/>
+      <c r="CLB11" s="2"/>
+      <c r="CLF11" s="2"/>
+      <c r="CLJ11" s="2"/>
+      <c r="CLN11" s="2"/>
+      <c r="CLR11" s="2"/>
+      <c r="CLV11" s="2"/>
+      <c r="CLZ11" s="2"/>
+      <c r="CMD11" s="2"/>
+      <c r="CMH11" s="2"/>
+      <c r="CML11" s="2"/>
+      <c r="CMP11" s="2"/>
+      <c r="CMT11" s="2"/>
+      <c r="CMX11" s="2"/>
+      <c r="CNB11" s="2"/>
+      <c r="CNF11" s="2"/>
+      <c r="CNJ11" s="2"/>
+      <c r="CNN11" s="2"/>
+      <c r="CNR11" s="2"/>
+      <c r="CNV11" s="2"/>
+      <c r="CNZ11" s="2"/>
+      <c r="COD11" s="2"/>
+      <c r="COH11" s="2"/>
+      <c r="COL11" s="2"/>
+      <c r="COP11" s="2"/>
+      <c r="COT11" s="2"/>
+      <c r="COX11" s="2"/>
+      <c r="CPB11" s="2"/>
+      <c r="CPF11" s="2"/>
+      <c r="CPJ11" s="2"/>
+      <c r="CPN11" s="2"/>
+      <c r="CPR11" s="2"/>
+      <c r="CPV11" s="2"/>
+      <c r="CPZ11" s="2"/>
+      <c r="CQD11" s="2"/>
+      <c r="CQH11" s="2"/>
+      <c r="CQL11" s="2"/>
+      <c r="CQP11" s="2"/>
+      <c r="CQT11" s="2"/>
+      <c r="CQX11" s="2"/>
+      <c r="CRB11" s="2"/>
+      <c r="CRF11" s="2"/>
+      <c r="CRJ11" s="2"/>
+      <c r="CRN11" s="2"/>
+      <c r="CRR11" s="2"/>
+      <c r="CRV11" s="2"/>
+      <c r="CRZ11" s="2"/>
+      <c r="CSD11" s="2"/>
+      <c r="CSH11" s="2"/>
+      <c r="CSL11" s="2"/>
+      <c r="CSP11" s="2"/>
+      <c r="CST11" s="2"/>
+      <c r="CSX11" s="2"/>
+      <c r="CTB11" s="2"/>
+      <c r="CTF11" s="2"/>
+      <c r="CTJ11" s="2"/>
+      <c r="CTN11" s="2"/>
+      <c r="CTR11" s="2"/>
+      <c r="CTV11" s="2"/>
+      <c r="CTZ11" s="2"/>
+      <c r="CUD11" s="2"/>
+      <c r="CUH11" s="2"/>
+      <c r="CUL11" s="2"/>
+      <c r="CUP11" s="2"/>
+      <c r="CUT11" s="2"/>
+      <c r="CUX11" s="2"/>
+      <c r="CVB11" s="2"/>
+      <c r="CVF11" s="2"/>
+      <c r="CVJ11" s="2"/>
+      <c r="CVN11" s="2"/>
+      <c r="CVR11" s="2"/>
+      <c r="CVV11" s="2"/>
+      <c r="CVZ11" s="2"/>
+      <c r="CWD11" s="2"/>
+      <c r="CWH11" s="2"/>
+      <c r="CWL11" s="2"/>
+      <c r="CWP11" s="2"/>
+      <c r="CWT11" s="2"/>
+      <c r="CWX11" s="2"/>
+      <c r="CXB11" s="2"/>
+      <c r="CXF11" s="2"/>
+      <c r="CXJ11" s="2"/>
+      <c r="CXN11" s="2"/>
+      <c r="CXR11" s="2"/>
+      <c r="CXV11" s="2"/>
+      <c r="CXZ11" s="2"/>
+      <c r="CYD11" s="2"/>
+      <c r="CYH11" s="2"/>
+      <c r="CYL11" s="2"/>
+      <c r="CYP11" s="2"/>
+      <c r="CYT11" s="2"/>
+      <c r="CYX11" s="2"/>
+      <c r="CZB11" s="2"/>
+      <c r="CZF11" s="2"/>
+      <c r="CZJ11" s="2"/>
+      <c r="CZN11" s="2"/>
+      <c r="CZR11" s="2"/>
+      <c r="CZV11" s="2"/>
+      <c r="CZZ11" s="2"/>
+      <c r="DAD11" s="2"/>
+      <c r="DAH11" s="2"/>
+      <c r="DAL11" s="2"/>
+      <c r="DAP11" s="2"/>
+      <c r="DAT11" s="2"/>
+      <c r="DAX11" s="2"/>
+      <c r="DBB11" s="2"/>
+      <c r="DBF11" s="2"/>
+      <c r="DBJ11" s="2"/>
+      <c r="DBN11" s="2"/>
+      <c r="DBR11" s="2"/>
+      <c r="DBV11" s="2"/>
+      <c r="DBZ11" s="2"/>
+      <c r="DCD11" s="2"/>
+      <c r="DCH11" s="2"/>
+      <c r="DCL11" s="2"/>
+      <c r="DCP11" s="2"/>
+      <c r="DCT11" s="2"/>
+      <c r="DCX11" s="2"/>
+      <c r="DDB11" s="2"/>
+      <c r="DDF11" s="2"/>
+      <c r="DDJ11" s="2"/>
+      <c r="DDN11" s="2"/>
+      <c r="DDR11" s="2"/>
+      <c r="DDV11" s="2"/>
+      <c r="DDZ11" s="2"/>
+      <c r="DED11" s="2"/>
+      <c r="DEH11" s="2"/>
+      <c r="DEL11" s="2"/>
+      <c r="DEP11" s="2"/>
+      <c r="DET11" s="2"/>
+      <c r="DEX11" s="2"/>
+      <c r="DFB11" s="2"/>
+      <c r="DFF11" s="2"/>
+      <c r="DFJ11" s="2"/>
+      <c r="DFN11" s="2"/>
+      <c r="DFR11" s="2"/>
+      <c r="DFV11" s="2"/>
+      <c r="DFZ11" s="2"/>
+      <c r="DGD11" s="2"/>
+      <c r="DGH11" s="2"/>
+      <c r="DGL11" s="2"/>
+      <c r="DGP11" s="2"/>
+      <c r="DGT11" s="2"/>
+      <c r="DGX11" s="2"/>
+      <c r="DHB11" s="2"/>
+      <c r="DHF11" s="2"/>
+      <c r="DHJ11" s="2"/>
+      <c r="DHN11" s="2"/>
+      <c r="DHR11" s="2"/>
+      <c r="DHV11" s="2"/>
+      <c r="DHZ11" s="2"/>
+      <c r="DID11" s="2"/>
+      <c r="DIH11" s="2"/>
+      <c r="DIL11" s="2"/>
+      <c r="DIP11" s="2"/>
+      <c r="DIT11" s="2"/>
+      <c r="DIX11" s="2"/>
+      <c r="DJB11" s="2"/>
+      <c r="DJF11" s="2"/>
+      <c r="DJJ11" s="2"/>
+      <c r="DJN11" s="2"/>
+      <c r="DJR11" s="2"/>
+      <c r="DJV11" s="2"/>
+      <c r="DJZ11" s="2"/>
+      <c r="DKD11" s="2"/>
+      <c r="DKH11" s="2"/>
+      <c r="DKL11" s="2"/>
+      <c r="DKP11" s="2"/>
+      <c r="DKT11" s="2"/>
+      <c r="DKX11" s="2"/>
+      <c r="DLB11" s="2"/>
+      <c r="DLF11" s="2"/>
+      <c r="DLJ11" s="2"/>
+      <c r="DLN11" s="2"/>
+      <c r="DLR11" s="2"/>
+      <c r="DLV11" s="2"/>
+      <c r="DLZ11" s="2"/>
+      <c r="DMD11" s="2"/>
+      <c r="DMH11" s="2"/>
+      <c r="DML11" s="2"/>
+      <c r="DMP11" s="2"/>
+      <c r="DMT11" s="2"/>
+      <c r="DMX11" s="2"/>
+      <c r="DNB11" s="2"/>
+      <c r="DNF11" s="2"/>
+      <c r="DNJ11" s="2"/>
+      <c r="DNN11" s="2"/>
+      <c r="DNR11" s="2"/>
+      <c r="DNV11" s="2"/>
+      <c r="DNZ11" s="2"/>
+      <c r="DOD11" s="2"/>
+      <c r="DOH11" s="2"/>
+      <c r="DOL11" s="2"/>
+      <c r="DOP11" s="2"/>
+      <c r="DOT11" s="2"/>
+      <c r="DOX11" s="2"/>
+      <c r="DPB11" s="2"/>
+      <c r="DPF11" s="2"/>
+      <c r="DPJ11" s="2"/>
+      <c r="DPN11" s="2"/>
+      <c r="DPR11" s="2"/>
+      <c r="DPV11" s="2"/>
+      <c r="DPZ11" s="2"/>
+      <c r="DQD11" s="2"/>
+      <c r="DQH11" s="2"/>
+      <c r="DQL11" s="2"/>
+      <c r="DQP11" s="2"/>
+      <c r="DQT11" s="2"/>
+      <c r="DQX11" s="2"/>
+      <c r="DRB11" s="2"/>
+      <c r="DRF11" s="2"/>
+      <c r="DRJ11" s="2"/>
+      <c r="DRN11" s="2"/>
+      <c r="DRR11" s="2"/>
+      <c r="DRV11" s="2"/>
+      <c r="DRZ11" s="2"/>
+      <c r="DSD11" s="2"/>
+      <c r="DSH11" s="2"/>
+      <c r="DSL11" s="2"/>
+      <c r="DSP11" s="2"/>
+      <c r="DST11" s="2"/>
+      <c r="DSX11" s="2"/>
+      <c r="DTB11" s="2"/>
+      <c r="DTF11" s="2"/>
+      <c r="DTJ11" s="2"/>
+      <c r="DTN11" s="2"/>
+      <c r="DTR11" s="2"/>
+      <c r="DTV11" s="2"/>
+      <c r="DTZ11" s="2"/>
+      <c r="DUD11" s="2"/>
+      <c r="DUH11" s="2"/>
+      <c r="DUL11" s="2"/>
+      <c r="DUP11" s="2"/>
+      <c r="DUT11" s="2"/>
+      <c r="DUX11" s="2"/>
+      <c r="DVB11" s="2"/>
+      <c r="DVF11" s="2"/>
+      <c r="DVJ11" s="2"/>
+      <c r="DVN11" s="2"/>
+      <c r="DVR11" s="2"/>
+      <c r="DVV11" s="2"/>
+      <c r="DVZ11" s="2"/>
+      <c r="DWD11" s="2"/>
+      <c r="DWH11" s="2"/>
+      <c r="DWL11" s="2"/>
+      <c r="DWP11" s="2"/>
+      <c r="DWT11" s="2"/>
+      <c r="DWX11" s="2"/>
+      <c r="DXB11" s="2"/>
+      <c r="DXF11" s="2"/>
+      <c r="DXJ11" s="2"/>
+      <c r="DXN11" s="2"/>
+      <c r="DXR11" s="2"/>
+      <c r="DXV11" s="2"/>
+      <c r="DXZ11" s="2"/>
+      <c r="DYD11" s="2"/>
+      <c r="DYH11" s="2"/>
+      <c r="DYL11" s="2"/>
+      <c r="DYP11" s="2"/>
+      <c r="DYT11" s="2"/>
+      <c r="DYX11" s="2"/>
+      <c r="DZB11" s="2"/>
+      <c r="DZF11" s="2"/>
+      <c r="DZJ11" s="2"/>
+      <c r="DZN11" s="2"/>
+      <c r="DZR11" s="2"/>
+      <c r="DZV11" s="2"/>
+      <c r="DZZ11" s="2"/>
+      <c r="EAD11" s="2"/>
+      <c r="EAH11" s="2"/>
+      <c r="EAL11" s="2"/>
+      <c r="EAP11" s="2"/>
+      <c r="EAT11" s="2"/>
+      <c r="EAX11" s="2"/>
+      <c r="EBB11" s="2"/>
+      <c r="EBF11" s="2"/>
+      <c r="EBJ11" s="2"/>
+      <c r="EBN11" s="2"/>
+      <c r="EBR11" s="2"/>
+      <c r="EBV11" s="2"/>
+      <c r="EBZ11" s="2"/>
+      <c r="ECD11" s="2"/>
+      <c r="ECH11" s="2"/>
+      <c r="ECL11" s="2"/>
+      <c r="ECP11" s="2"/>
+      <c r="ECT11" s="2"/>
+      <c r="ECX11" s="2"/>
+      <c r="EDB11" s="2"/>
+      <c r="EDF11" s="2"/>
+      <c r="EDJ11" s="2"/>
+      <c r="EDN11" s="2"/>
+      <c r="EDR11" s="2"/>
+      <c r="EDV11" s="2"/>
+      <c r="EDZ11" s="2"/>
+      <c r="EED11" s="2"/>
+      <c r="EEH11" s="2"/>
+      <c r="EEL11" s="2"/>
+      <c r="EEP11" s="2"/>
+      <c r="EET11" s="2"/>
+      <c r="EEX11" s="2"/>
+      <c r="EFB11" s="2"/>
+      <c r="EFF11" s="2"/>
+      <c r="EFJ11" s="2"/>
+      <c r="EFN11" s="2"/>
+      <c r="EFR11" s="2"/>
+      <c r="EFV11" s="2"/>
+      <c r="EFZ11" s="2"/>
+      <c r="EGD11" s="2"/>
+      <c r="EGH11" s="2"/>
+      <c r="EGL11" s="2"/>
+      <c r="EGP11" s="2"/>
+      <c r="EGT11" s="2"/>
+      <c r="EGX11" s="2"/>
+      <c r="EHB11" s="2"/>
+      <c r="EHF11" s="2"/>
+      <c r="EHJ11" s="2"/>
+      <c r="EHN11" s="2"/>
+      <c r="EHR11" s="2"/>
+      <c r="EHV11" s="2"/>
+      <c r="EHZ11" s="2"/>
+      <c r="EID11" s="2"/>
+      <c r="EIH11" s="2"/>
+      <c r="EIL11" s="2"/>
+      <c r="EIP11" s="2"/>
+      <c r="EIT11" s="2"/>
+      <c r="EIX11" s="2"/>
+      <c r="EJB11" s="2"/>
+      <c r="EJF11" s="2"/>
+      <c r="EJJ11" s="2"/>
+      <c r="EJN11" s="2"/>
+      <c r="EJR11" s="2"/>
+      <c r="EJV11" s="2"/>
+      <c r="EJZ11" s="2"/>
+      <c r="EKD11" s="2"/>
+      <c r="EKH11" s="2"/>
+      <c r="EKL11" s="2"/>
+      <c r="EKP11" s="2"/>
+      <c r="EKT11" s="2"/>
+      <c r="EKX11" s="2"/>
+      <c r="ELB11" s="2"/>
+      <c r="ELF11" s="2"/>
+      <c r="ELJ11" s="2"/>
+      <c r="ELN11" s="2"/>
+      <c r="ELR11" s="2"/>
+      <c r="ELV11" s="2"/>
+      <c r="ELZ11" s="2"/>
+      <c r="EMD11" s="2"/>
+      <c r="EMH11" s="2"/>
+      <c r="EML11" s="2"/>
+      <c r="EMP11" s="2"/>
+      <c r="EMT11" s="2"/>
+      <c r="EMX11" s="2"/>
+      <c r="ENB11" s="2"/>
+      <c r="ENF11" s="2"/>
+      <c r="ENJ11" s="2"/>
+      <c r="ENN11" s="2"/>
+      <c r="ENR11" s="2"/>
+      <c r="ENV11" s="2"/>
+      <c r="ENZ11" s="2"/>
+      <c r="EOD11" s="2"/>
+      <c r="EOH11" s="2"/>
+      <c r="EOL11" s="2"/>
+      <c r="EOP11" s="2"/>
+      <c r="EOT11" s="2"/>
+      <c r="EOX11" s="2"/>
+      <c r="EPB11" s="2"/>
+      <c r="EPF11" s="2"/>
+      <c r="EPJ11" s="2"/>
+      <c r="EPN11" s="2"/>
+      <c r="EPR11" s="2"/>
+      <c r="EPV11" s="2"/>
+      <c r="EPZ11" s="2"/>
+      <c r="EQD11" s="2"/>
+      <c r="EQH11" s="2"/>
+      <c r="EQL11" s="2"/>
+      <c r="EQP11" s="2"/>
+      <c r="EQT11" s="2"/>
+      <c r="EQX11" s="2"/>
+      <c r="ERB11" s="2"/>
+      <c r="ERF11" s="2"/>
+      <c r="ERJ11" s="2"/>
+      <c r="ERN11" s="2"/>
+      <c r="ERR11" s="2"/>
+      <c r="ERV11" s="2"/>
+      <c r="ERZ11" s="2"/>
+      <c r="ESD11" s="2"/>
+      <c r="ESH11" s="2"/>
+      <c r="ESL11" s="2"/>
+      <c r="ESP11" s="2"/>
+      <c r="EST11" s="2"/>
+      <c r="ESX11" s="2"/>
+      <c r="ETB11" s="2"/>
+      <c r="ETF11" s="2"/>
+      <c r="ETJ11" s="2"/>
+      <c r="ETN11" s="2"/>
+      <c r="ETR11" s="2"/>
+      <c r="ETV11" s="2"/>
+      <c r="ETZ11" s="2"/>
+      <c r="EUD11" s="2"/>
+      <c r="EUH11" s="2"/>
+      <c r="EUL11" s="2"/>
+      <c r="EUP11" s="2"/>
+      <c r="EUT11" s="2"/>
+      <c r="EUX11" s="2"/>
+      <c r="EVB11" s="2"/>
+      <c r="EVF11" s="2"/>
+      <c r="EVJ11" s="2"/>
+      <c r="EVN11" s="2"/>
+      <c r="EVR11" s="2"/>
+      <c r="EVV11" s="2"/>
+      <c r="EVZ11" s="2"/>
+      <c r="EWD11" s="2"/>
+      <c r="EWH11" s="2"/>
+      <c r="EWL11" s="2"/>
+      <c r="EWP11" s="2"/>
+      <c r="EWT11" s="2"/>
+      <c r="EWX11" s="2"/>
+      <c r="EXB11" s="2"/>
+      <c r="EXF11" s="2"/>
+      <c r="EXJ11" s="2"/>
+      <c r="EXN11" s="2"/>
+      <c r="EXR11" s="2"/>
+      <c r="EXV11" s="2"/>
+      <c r="EXZ11" s="2"/>
+      <c r="EYD11" s="2"/>
+      <c r="EYH11" s="2"/>
+      <c r="EYL11" s="2"/>
+      <c r="EYP11" s="2"/>
+      <c r="EYT11" s="2"/>
+      <c r="EYX11" s="2"/>
+      <c r="EZB11" s="2"/>
+      <c r="EZF11" s="2"/>
+      <c r="EZJ11" s="2"/>
+      <c r="EZN11" s="2"/>
+      <c r="EZR11" s="2"/>
+      <c r="EZV11" s="2"/>
+      <c r="EZZ11" s="2"/>
+      <c r="FAD11" s="2"/>
+      <c r="FAH11" s="2"/>
+      <c r="FAL11" s="2"/>
+      <c r="FAP11" s="2"/>
+      <c r="FAT11" s="2"/>
+      <c r="FAX11" s="2"/>
+      <c r="FBB11" s="2"/>
+      <c r="FBF11" s="2"/>
+      <c r="FBJ11" s="2"/>
+      <c r="FBN11" s="2"/>
+      <c r="FBR11" s="2"/>
+      <c r="FBV11" s="2"/>
+      <c r="FBZ11" s="2"/>
+      <c r="FCD11" s="2"/>
+      <c r="FCH11" s="2"/>
+      <c r="FCL11" s="2"/>
+      <c r="FCP11" s="2"/>
+      <c r="FCT11" s="2"/>
+      <c r="FCX11" s="2"/>
+      <c r="FDB11" s="2"/>
+      <c r="FDF11" s="2"/>
+      <c r="FDJ11" s="2"/>
+      <c r="FDN11" s="2"/>
+      <c r="FDR11" s="2"/>
+      <c r="FDV11" s="2"/>
+      <c r="FDZ11" s="2"/>
+      <c r="FED11" s="2"/>
+      <c r="FEH11" s="2"/>
+      <c r="FEL11" s="2"/>
+      <c r="FEP11" s="2"/>
+      <c r="FET11" s="2"/>
+      <c r="FEX11" s="2"/>
+      <c r="FFB11" s="2"/>
+      <c r="FFF11" s="2"/>
+      <c r="FFJ11" s="2"/>
+      <c r="FFN11" s="2"/>
+      <c r="FFR11" s="2"/>
+      <c r="FFV11" s="2"/>
+      <c r="FFZ11" s="2"/>
+      <c r="FGD11" s="2"/>
+      <c r="FGH11" s="2"/>
+      <c r="FGL11" s="2"/>
+      <c r="FGP11" s="2"/>
+      <c r="FGT11" s="2"/>
+      <c r="FGX11" s="2"/>
+      <c r="FHB11" s="2"/>
+      <c r="FHF11" s="2"/>
+      <c r="FHJ11" s="2"/>
+      <c r="FHN11" s="2"/>
+      <c r="FHR11" s="2"/>
+      <c r="FHV11" s="2"/>
+      <c r="FHZ11" s="2"/>
+      <c r="FID11" s="2"/>
+      <c r="FIH11" s="2"/>
+      <c r="FIL11" s="2"/>
+      <c r="FIP11" s="2"/>
+      <c r="FIT11" s="2"/>
+      <c r="FIX11" s="2"/>
+      <c r="FJB11" s="2"/>
+      <c r="FJF11" s="2"/>
+      <c r="FJJ11" s="2"/>
+      <c r="FJN11" s="2"/>
+      <c r="FJR11" s="2"/>
+      <c r="FJV11" s="2"/>
+      <c r="FJZ11" s="2"/>
+      <c r="FKD11" s="2"/>
+      <c r="FKH11" s="2"/>
+      <c r="FKL11" s="2"/>
+      <c r="FKP11" s="2"/>
+      <c r="FKT11" s="2"/>
+      <c r="FKX11" s="2"/>
+      <c r="FLB11" s="2"/>
+      <c r="FLF11" s="2"/>
+      <c r="FLJ11" s="2"/>
+      <c r="FLN11" s="2"/>
+      <c r="FLR11" s="2"/>
+      <c r="FLV11" s="2"/>
+      <c r="FLZ11" s="2"/>
+      <c r="FMD11" s="2"/>
+      <c r="FMH11" s="2"/>
+      <c r="FML11" s="2"/>
+      <c r="FMP11" s="2"/>
+      <c r="FMT11" s="2"/>
+      <c r="FMX11" s="2"/>
+      <c r="FNB11" s="2"/>
+      <c r="FNF11" s="2"/>
+      <c r="FNJ11" s="2"/>
+      <c r="FNN11" s="2"/>
+      <c r="FNR11" s="2"/>
+      <c r="FNV11" s="2"/>
+      <c r="FNZ11" s="2"/>
+      <c r="FOD11" s="2"/>
+      <c r="FOH11" s="2"/>
+      <c r="FOL11" s="2"/>
+      <c r="FOP11" s="2"/>
+      <c r="FOT11" s="2"/>
+      <c r="FOX11" s="2"/>
+      <c r="FPB11" s="2"/>
+      <c r="FPF11" s="2"/>
+      <c r="FPJ11" s="2"/>
+      <c r="FPN11" s="2"/>
+      <c r="FPR11" s="2"/>
+      <c r="FPV11" s="2"/>
+      <c r="FPZ11" s="2"/>
+      <c r="FQD11" s="2"/>
+      <c r="FQH11" s="2"/>
+      <c r="FQL11" s="2"/>
+      <c r="FQP11" s="2"/>
+      <c r="FQT11" s="2"/>
+      <c r="FQX11" s="2"/>
+      <c r="FRB11" s="2"/>
+      <c r="FRF11" s="2"/>
+      <c r="FRJ11" s="2"/>
+      <c r="FRN11" s="2"/>
+      <c r="FRR11" s="2"/>
+      <c r="FRV11" s="2"/>
+      <c r="FRZ11" s="2"/>
+      <c r="FSD11" s="2"/>
+      <c r="FSH11" s="2"/>
+      <c r="FSL11" s="2"/>
+      <c r="FSP11" s="2"/>
+      <c r="FST11" s="2"/>
+      <c r="FSX11" s="2"/>
+      <c r="FTB11" s="2"/>
+      <c r="FTF11" s="2"/>
+      <c r="FTJ11" s="2"/>
+      <c r="FTN11" s="2"/>
+      <c r="FTR11" s="2"/>
+      <c r="FTV11" s="2"/>
+      <c r="FTZ11" s="2"/>
+      <c r="FUD11" s="2"/>
+      <c r="FUH11" s="2"/>
+      <c r="FUL11" s="2"/>
+      <c r="FUP11" s="2"/>
+      <c r="FUT11" s="2"/>
+      <c r="FUX11" s="2"/>
+      <c r="FVB11" s="2"/>
+      <c r="FVF11" s="2"/>
+      <c r="FVJ11" s="2"/>
+      <c r="FVN11" s="2"/>
+      <c r="FVR11" s="2"/>
+      <c r="FVV11" s="2"/>
+      <c r="FVZ11" s="2"/>
+      <c r="FWD11" s="2"/>
+      <c r="FWH11" s="2"/>
+      <c r="FWL11" s="2"/>
+      <c r="FWP11" s="2"/>
+      <c r="FWT11" s="2"/>
+      <c r="FWX11" s="2"/>
+      <c r="FXB11" s="2"/>
+      <c r="FXF11" s="2"/>
+      <c r="FXJ11" s="2"/>
+      <c r="FXN11" s="2"/>
+      <c r="FXR11" s="2"/>
+      <c r="FXV11" s="2"/>
+      <c r="FXZ11" s="2"/>
+      <c r="FYD11" s="2"/>
+      <c r="FYH11" s="2"/>
+      <c r="FYL11" s="2"/>
+      <c r="FYP11" s="2"/>
+      <c r="FYT11" s="2"/>
+      <c r="FYX11" s="2"/>
+      <c r="FZB11" s="2"/>
+      <c r="FZF11" s="2"/>
+      <c r="FZJ11" s="2"/>
+      <c r="FZN11" s="2"/>
+      <c r="FZR11" s="2"/>
+      <c r="FZV11" s="2"/>
+      <c r="FZZ11" s="2"/>
+      <c r="GAD11" s="2"/>
+      <c r="GAH11" s="2"/>
+      <c r="GAL11" s="2"/>
+      <c r="GAP11" s="2"/>
+      <c r="GAT11" s="2"/>
+      <c r="GAX11" s="2"/>
+      <c r="GBB11" s="2"/>
+      <c r="GBF11" s="2"/>
+      <c r="GBJ11" s="2"/>
+      <c r="GBN11" s="2"/>
+      <c r="GBR11" s="2"/>
+      <c r="GBV11" s="2"/>
+      <c r="GBZ11" s="2"/>
+      <c r="GCD11" s="2"/>
+      <c r="GCH11" s="2"/>
+      <c r="GCL11" s="2"/>
+      <c r="GCP11" s="2"/>
+      <c r="GCT11" s="2"/>
+      <c r="GCX11" s="2"/>
+      <c r="GDB11" s="2"/>
+      <c r="GDF11" s="2"/>
+      <c r="GDJ11" s="2"/>
+      <c r="GDN11" s="2"/>
+      <c r="GDR11" s="2"/>
+      <c r="GDV11" s="2"/>
+      <c r="GDZ11" s="2"/>
+      <c r="GED11" s="2"/>
+      <c r="GEH11" s="2"/>
+      <c r="GEL11" s="2"/>
+      <c r="GEP11" s="2"/>
+      <c r="GET11" s="2"/>
+      <c r="GEX11" s="2"/>
+      <c r="GFB11" s="2"/>
+      <c r="GFF11" s="2"/>
+      <c r="GFJ11" s="2"/>
+      <c r="GFN11" s="2"/>
+      <c r="GFR11" s="2"/>
+      <c r="GFV11" s="2"/>
+      <c r="GFZ11" s="2"/>
+      <c r="GGD11" s="2"/>
+      <c r="GGH11" s="2"/>
+      <c r="GGL11" s="2"/>
+      <c r="GGP11" s="2"/>
+      <c r="GGT11" s="2"/>
+      <c r="GGX11" s="2"/>
+      <c r="GHB11" s="2"/>
+      <c r="GHF11" s="2"/>
+      <c r="GHJ11" s="2"/>
+      <c r="GHN11" s="2"/>
+      <c r="GHR11" s="2"/>
+      <c r="GHV11" s="2"/>
+      <c r="GHZ11" s="2"/>
+      <c r="GID11" s="2"/>
+      <c r="GIH11" s="2"/>
+      <c r="GIL11" s="2"/>
+      <c r="GIP11" s="2"/>
+      <c r="GIT11" s="2"/>
+      <c r="GIX11" s="2"/>
+      <c r="GJB11" s="2"/>
+      <c r="GJF11" s="2"/>
+      <c r="GJJ11" s="2"/>
+      <c r="GJN11" s="2"/>
+      <c r="GJR11" s="2"/>
+      <c r="GJV11" s="2"/>
+      <c r="GJZ11" s="2"/>
+      <c r="GKD11" s="2"/>
+      <c r="GKH11" s="2"/>
+      <c r="GKL11" s="2"/>
+      <c r="GKP11" s="2"/>
+      <c r="GKT11" s="2"/>
+      <c r="GKX11" s="2"/>
+      <c r="GLB11" s="2"/>
+      <c r="GLF11" s="2"/>
+      <c r="GLJ11" s="2"/>
+      <c r="GLN11" s="2"/>
+      <c r="GLR11" s="2"/>
+      <c r="GLV11" s="2"/>
+      <c r="GLZ11" s="2"/>
+      <c r="GMD11" s="2"/>
+      <c r="GMH11" s="2"/>
+      <c r="GML11" s="2"/>
+      <c r="GMP11" s="2"/>
+      <c r="GMT11" s="2"/>
+      <c r="GMX11" s="2"/>
+      <c r="GNB11" s="2"/>
+      <c r="GNF11" s="2"/>
+      <c r="GNJ11" s="2"/>
+      <c r="GNN11" s="2"/>
+      <c r="GNR11" s="2"/>
+      <c r="GNV11" s="2"/>
+      <c r="GNZ11" s="2"/>
+      <c r="GOD11" s="2"/>
+      <c r="GOH11" s="2"/>
+      <c r="GOL11" s="2"/>
+      <c r="GOP11" s="2"/>
+      <c r="GOT11" s="2"/>
+      <c r="GOX11" s="2"/>
+      <c r="GPB11" s="2"/>
+      <c r="GPF11" s="2"/>
+      <c r="GPJ11" s="2"/>
+      <c r="GPN11" s="2"/>
+      <c r="GPR11" s="2"/>
+      <c r="GPV11" s="2"/>
+      <c r="GPZ11" s="2"/>
+      <c r="GQD11" s="2"/>
+      <c r="GQH11" s="2"/>
+      <c r="GQL11" s="2"/>
+      <c r="GQP11" s="2"/>
+      <c r="GQT11" s="2"/>
+      <c r="GQX11" s="2"/>
+      <c r="GRB11" s="2"/>
+      <c r="GRF11" s="2"/>
+      <c r="GRJ11" s="2"/>
+      <c r="GRN11" s="2"/>
+      <c r="GRR11" s="2"/>
+      <c r="GRV11" s="2"/>
+      <c r="GRZ11" s="2"/>
+      <c r="GSD11" s="2"/>
+      <c r="GSH11" s="2"/>
+      <c r="GSL11" s="2"/>
+      <c r="GSP11" s="2"/>
+      <c r="GST11" s="2"/>
+      <c r="GSX11" s="2"/>
+      <c r="GTB11" s="2"/>
+      <c r="GTF11" s="2"/>
+      <c r="GTJ11" s="2"/>
+      <c r="GTN11" s="2"/>
+      <c r="GTR11" s="2"/>
+      <c r="GTV11" s="2"/>
+      <c r="GTZ11" s="2"/>
+      <c r="GUD11" s="2"/>
+      <c r="GUH11" s="2"/>
+      <c r="GUL11" s="2"/>
+      <c r="GUP11" s="2"/>
+      <c r="GUT11" s="2"/>
+      <c r="GUX11" s="2"/>
+      <c r="GVB11" s="2"/>
+      <c r="GVF11" s="2"/>
+      <c r="GVJ11" s="2"/>
+      <c r="GVN11" s="2"/>
+      <c r="GVR11" s="2"/>
+      <c r="GVV11" s="2"/>
+      <c r="GVZ11" s="2"/>
+      <c r="GWD11" s="2"/>
+      <c r="GWH11" s="2"/>
+      <c r="GWL11" s="2"/>
+      <c r="GWP11" s="2"/>
+      <c r="GWT11" s="2"/>
+      <c r="GWX11" s="2"/>
+      <c r="GXB11" s="2"/>
+      <c r="GXF11" s="2"/>
+      <c r="GXJ11" s="2"/>
+      <c r="GXN11" s="2"/>
+      <c r="GXR11" s="2"/>
+      <c r="GXV11" s="2"/>
+      <c r="GXZ11" s="2"/>
+      <c r="GYD11" s="2"/>
+      <c r="GYH11" s="2"/>
+      <c r="GYL11" s="2"/>
+      <c r="GYP11" s="2"/>
+      <c r="GYT11" s="2"/>
+      <c r="GYX11" s="2"/>
+      <c r="GZB11" s="2"/>
+      <c r="GZF11" s="2"/>
+      <c r="GZJ11" s="2"/>
+      <c r="GZN11" s="2"/>
+      <c r="GZR11" s="2"/>
+      <c r="GZV11" s="2"/>
+      <c r="GZZ11" s="2"/>
+      <c r="HAD11" s="2"/>
+      <c r="HAH11" s="2"/>
+      <c r="HAL11" s="2"/>
+      <c r="HAP11" s="2"/>
+      <c r="HAT11" s="2"/>
+      <c r="HAX11" s="2"/>
+      <c r="HBB11" s="2"/>
+      <c r="HBF11" s="2"/>
+      <c r="HBJ11" s="2"/>
+      <c r="HBN11" s="2"/>
+      <c r="HBR11" s="2"/>
+      <c r="HBV11" s="2"/>
+      <c r="HBZ11" s="2"/>
+      <c r="HCD11" s="2"/>
+      <c r="HCH11" s="2"/>
+      <c r="HCL11" s="2"/>
+      <c r="HCP11" s="2"/>
+      <c r="HCT11" s="2"/>
+      <c r="HCX11" s="2"/>
+      <c r="HDB11" s="2"/>
+      <c r="HDF11" s="2"/>
+      <c r="HDJ11" s="2"/>
+      <c r="HDN11" s="2"/>
+      <c r="HDR11" s="2"/>
+      <c r="HDV11" s="2"/>
+      <c r="HDZ11" s="2"/>
+      <c r="HED11" s="2"/>
+      <c r="HEH11" s="2"/>
+      <c r="HEL11" s="2"/>
+      <c r="HEP11" s="2"/>
+      <c r="HET11" s="2"/>
+      <c r="HEX11" s="2"/>
+      <c r="HFB11" s="2"/>
+      <c r="HFF11" s="2"/>
+      <c r="HFJ11" s="2"/>
+      <c r="HFN11" s="2"/>
+      <c r="HFR11" s="2"/>
+      <c r="HFV11" s="2"/>
+      <c r="HFZ11" s="2"/>
+      <c r="HGD11" s="2"/>
+      <c r="HGH11" s="2"/>
+      <c r="HGL11" s="2"/>
+      <c r="HGP11" s="2"/>
+      <c r="HGT11" s="2"/>
+      <c r="HGX11" s="2"/>
+      <c r="HHB11" s="2"/>
+      <c r="HHF11" s="2"/>
+      <c r="HHJ11" s="2"/>
+      <c r="HHN11" s="2"/>
+      <c r="HHR11" s="2"/>
+      <c r="HHV11" s="2"/>
+      <c r="HHZ11" s="2"/>
+      <c r="HID11" s="2"/>
+      <c r="HIH11" s="2"/>
+      <c r="HIL11" s="2"/>
+      <c r="HIP11" s="2"/>
+      <c r="HIT11" s="2"/>
+      <c r="HIX11" s="2"/>
+      <c r="HJB11" s="2"/>
+      <c r="HJF11" s="2"/>
+      <c r="HJJ11" s="2"/>
+      <c r="HJN11" s="2"/>
+      <c r="HJR11" s="2"/>
+      <c r="HJV11" s="2"/>
+      <c r="HJZ11" s="2"/>
+      <c r="HKD11" s="2"/>
+      <c r="HKH11" s="2"/>
+      <c r="HKL11" s="2"/>
+      <c r="HKP11" s="2"/>
+      <c r="HKT11" s="2"/>
+      <c r="HKX11" s="2"/>
+      <c r="HLB11" s="2"/>
+      <c r="HLF11" s="2"/>
+      <c r="HLJ11" s="2"/>
+      <c r="HLN11" s="2"/>
+      <c r="HLR11" s="2"/>
+      <c r="HLV11" s="2"/>
+      <c r="HLZ11" s="2"/>
+      <c r="HMD11" s="2"/>
+      <c r="HMH11" s="2"/>
+      <c r="HML11" s="2"/>
+      <c r="HMP11" s="2"/>
+      <c r="HMT11" s="2"/>
+      <c r="HMX11" s="2"/>
+      <c r="HNB11" s="2"/>
+      <c r="HNF11" s="2"/>
+      <c r="HNJ11" s="2"/>
+      <c r="HNN11" s="2"/>
+      <c r="HNR11" s="2"/>
+      <c r="HNV11" s="2"/>
+      <c r="HNZ11" s="2"/>
+      <c r="HOD11" s="2"/>
+      <c r="HOH11" s="2"/>
+      <c r="HOL11" s="2"/>
+      <c r="HOP11" s="2"/>
+      <c r="HOT11" s="2"/>
+      <c r="HOX11" s="2"/>
+      <c r="HPB11" s="2"/>
+      <c r="HPF11" s="2"/>
+      <c r="HPJ11" s="2"/>
+      <c r="HPN11" s="2"/>
+      <c r="HPR11" s="2"/>
+      <c r="HPV11" s="2"/>
+      <c r="HPZ11" s="2"/>
+      <c r="HQD11" s="2"/>
+      <c r="HQH11" s="2"/>
+      <c r="HQL11" s="2"/>
+      <c r="HQP11" s="2"/>
+      <c r="HQT11" s="2"/>
+      <c r="HQX11" s="2"/>
+      <c r="HRB11" s="2"/>
+      <c r="HRF11" s="2"/>
+      <c r="HRJ11" s="2"/>
+      <c r="HRN11" s="2"/>
+      <c r="HRR11" s="2"/>
+      <c r="HRV11" s="2"/>
+      <c r="HRZ11" s="2"/>
+      <c r="HSD11" s="2"/>
+      <c r="HSH11" s="2"/>
+      <c r="HSL11" s="2"/>
+      <c r="HSP11" s="2"/>
+      <c r="HST11" s="2"/>
+      <c r="HSX11" s="2"/>
+      <c r="HTB11" s="2"/>
+      <c r="HTF11" s="2"/>
+      <c r="HTJ11" s="2"/>
+      <c r="HTN11" s="2"/>
+      <c r="HTR11" s="2"/>
+      <c r="HTV11" s="2"/>
+      <c r="HTZ11" s="2"/>
+      <c r="HUD11" s="2"/>
+      <c r="HUH11" s="2"/>
+      <c r="HUL11" s="2"/>
+      <c r="HUP11" s="2"/>
+      <c r="HUT11" s="2"/>
+      <c r="HUX11" s="2"/>
+      <c r="HVB11" s="2"/>
+      <c r="HVF11" s="2"/>
+      <c r="HVJ11" s="2"/>
+      <c r="HVN11" s="2"/>
+      <c r="HVR11" s="2"/>
+      <c r="HVV11" s="2"/>
+      <c r="HVZ11" s="2"/>
+      <c r="HWD11" s="2"/>
+      <c r="HWH11" s="2"/>
+      <c r="HWL11" s="2"/>
+      <c r="HWP11" s="2"/>
+      <c r="HWT11" s="2"/>
+      <c r="HWX11" s="2"/>
+      <c r="HXB11" s="2"/>
+      <c r="HXF11" s="2"/>
+      <c r="HXJ11" s="2"/>
+      <c r="HXN11" s="2"/>
+      <c r="HXR11" s="2"/>
+      <c r="HXV11" s="2"/>
+      <c r="HXZ11" s="2"/>
+      <c r="HYD11" s="2"/>
+      <c r="HYH11" s="2"/>
+      <c r="HYL11" s="2"/>
+      <c r="HYP11" s="2"/>
+      <c r="HYT11" s="2"/>
+      <c r="HYX11" s="2"/>
+      <c r="HZB11" s="2"/>
+      <c r="HZF11" s="2"/>
+      <c r="HZJ11" s="2"/>
+      <c r="HZN11" s="2"/>
+      <c r="HZR11" s="2"/>
+      <c r="HZV11" s="2"/>
+      <c r="HZZ11" s="2"/>
+      <c r="IAD11" s="2"/>
+      <c r="IAH11" s="2"/>
+      <c r="IAL11" s="2"/>
+      <c r="IAP11" s="2"/>
+      <c r="IAT11" s="2"/>
+      <c r="IAX11" s="2"/>
+      <c r="IBB11" s="2"/>
+      <c r="IBF11" s="2"/>
+      <c r="IBJ11" s="2"/>
+      <c r="IBN11" s="2"/>
+      <c r="IBR11" s="2"/>
+      <c r="IBV11" s="2"/>
+      <c r="IBZ11" s="2"/>
+      <c r="ICD11" s="2"/>
+      <c r="ICH11" s="2"/>
+      <c r="ICL11" s="2"/>
+      <c r="ICP11" s="2"/>
+      <c r="ICT11" s="2"/>
+      <c r="ICX11" s="2"/>
+      <c r="IDB11" s="2"/>
+      <c r="IDF11" s="2"/>
+      <c r="IDJ11" s="2"/>
+      <c r="IDN11" s="2"/>
+      <c r="IDR11" s="2"/>
+      <c r="IDV11" s="2"/>
+      <c r="IDZ11" s="2"/>
+      <c r="IED11" s="2"/>
+      <c r="IEH11" s="2"/>
+      <c r="IEL11" s="2"/>
+      <c r="IEP11" s="2"/>
+      <c r="IET11" s="2"/>
+      <c r="IEX11" s="2"/>
+      <c r="IFB11" s="2"/>
+      <c r="IFF11" s="2"/>
+      <c r="IFJ11" s="2"/>
+      <c r="IFN11" s="2"/>
+      <c r="IFR11" s="2"/>
+      <c r="IFV11" s="2"/>
+      <c r="IFZ11" s="2"/>
+      <c r="IGD11" s="2"/>
+      <c r="IGH11" s="2"/>
+      <c r="IGL11" s="2"/>
+      <c r="IGP11" s="2"/>
+      <c r="IGT11" s="2"/>
+      <c r="IGX11" s="2"/>
+      <c r="IHB11" s="2"/>
+      <c r="IHF11" s="2"/>
+      <c r="IHJ11" s="2"/>
+      <c r="IHN11" s="2"/>
+      <c r="IHR11" s="2"/>
+      <c r="IHV11" s="2"/>
+      <c r="IHZ11" s="2"/>
+      <c r="IID11" s="2"/>
+      <c r="IIH11" s="2"/>
+      <c r="IIL11" s="2"/>
+      <c r="IIP11" s="2"/>
+      <c r="IIT11" s="2"/>
+      <c r="IIX11" s="2"/>
+      <c r="IJB11" s="2"/>
+      <c r="IJF11" s="2"/>
+      <c r="IJJ11" s="2"/>
+      <c r="IJN11" s="2"/>
+      <c r="IJR11" s="2"/>
+      <c r="IJV11" s="2"/>
+      <c r="IJZ11" s="2"/>
+      <c r="IKD11" s="2"/>
+      <c r="IKH11" s="2"/>
+      <c r="IKL11" s="2"/>
+      <c r="IKP11" s="2"/>
+      <c r="IKT11" s="2"/>
+      <c r="IKX11" s="2"/>
+      <c r="ILB11" s="2"/>
+      <c r="ILF11" s="2"/>
+      <c r="ILJ11" s="2"/>
+      <c r="ILN11" s="2"/>
+      <c r="ILR11" s="2"/>
+      <c r="ILV11" s="2"/>
+      <c r="ILZ11" s="2"/>
+      <c r="IMD11" s="2"/>
+      <c r="IMH11" s="2"/>
+      <c r="IML11" s="2"/>
+      <c r="IMP11" s="2"/>
+      <c r="IMT11" s="2"/>
+      <c r="IMX11" s="2"/>
+      <c r="INB11" s="2"/>
+      <c r="INF11" s="2"/>
+      <c r="INJ11" s="2"/>
+      <c r="INN11" s="2"/>
+      <c r="INR11" s="2"/>
+      <c r="INV11" s="2"/>
+      <c r="INZ11" s="2"/>
+      <c r="IOD11" s="2"/>
+      <c r="IOH11" s="2"/>
+      <c r="IOL11" s="2"/>
+      <c r="IOP11" s="2"/>
+      <c r="IOT11" s="2"/>
+      <c r="IOX11" s="2"/>
+      <c r="IPB11" s="2"/>
+      <c r="IPF11" s="2"/>
+      <c r="IPJ11" s="2"/>
+      <c r="IPN11" s="2"/>
+      <c r="IPR11" s="2"/>
+      <c r="IPV11" s="2"/>
+      <c r="IPZ11" s="2"/>
+      <c r="IQD11" s="2"/>
+      <c r="IQH11" s="2"/>
+      <c r="IQL11" s="2"/>
+      <c r="IQP11" s="2"/>
+      <c r="IQT11" s="2"/>
+      <c r="IQX11" s="2"/>
+      <c r="IRB11" s="2"/>
+      <c r="IRF11" s="2"/>
+      <c r="IRJ11" s="2"/>
+      <c r="IRN11" s="2"/>
+      <c r="IRR11" s="2"/>
+      <c r="IRV11" s="2"/>
+      <c r="IRZ11" s="2"/>
+      <c r="ISD11" s="2"/>
+      <c r="ISH11" s="2"/>
+      <c r="ISL11" s="2"/>
+      <c r="ISP11" s="2"/>
+      <c r="IST11" s="2"/>
+      <c r="ISX11" s="2"/>
+      <c r="ITB11" s="2"/>
+      <c r="ITF11" s="2"/>
+      <c r="ITJ11" s="2"/>
+      <c r="ITN11" s="2"/>
+      <c r="ITR11" s="2"/>
+      <c r="ITV11" s="2"/>
+      <c r="ITZ11" s="2"/>
+      <c r="IUD11" s="2"/>
+      <c r="IUH11" s="2"/>
+      <c r="IUL11" s="2"/>
+      <c r="IUP11" s="2"/>
+      <c r="IUT11" s="2"/>
+      <c r="IUX11" s="2"/>
+      <c r="IVB11" s="2"/>
+      <c r="IVF11" s="2"/>
+      <c r="IVJ11" s="2"/>
+      <c r="IVN11" s="2"/>
+      <c r="IVR11" s="2"/>
+      <c r="IVV11" s="2"/>
+      <c r="IVZ11" s="2"/>
+      <c r="IWD11" s="2"/>
+      <c r="IWH11" s="2"/>
+      <c r="IWL11" s="2"/>
+      <c r="IWP11" s="2"/>
+      <c r="IWT11" s="2"/>
+      <c r="IWX11" s="2"/>
+      <c r="IXB11" s="2"/>
+      <c r="IXF11" s="2"/>
+      <c r="IXJ11" s="2"/>
+      <c r="IXN11" s="2"/>
+      <c r="IXR11" s="2"/>
+      <c r="IXV11" s="2"/>
+      <c r="IXZ11" s="2"/>
+      <c r="IYD11" s="2"/>
+      <c r="IYH11" s="2"/>
+      <c r="IYL11" s="2"/>
+      <c r="IYP11" s="2"/>
+      <c r="IYT11" s="2"/>
+      <c r="IYX11" s="2"/>
+      <c r="IZB11" s="2"/>
+      <c r="IZF11" s="2"/>
+      <c r="IZJ11" s="2"/>
+      <c r="IZN11" s="2"/>
+      <c r="IZR11" s="2"/>
+      <c r="IZV11" s="2"/>
+      <c r="IZZ11" s="2"/>
+      <c r="JAD11" s="2"/>
+      <c r="JAH11" s="2"/>
+      <c r="JAL11" s="2"/>
+      <c r="JAP11" s="2"/>
+      <c r="JAT11" s="2"/>
+      <c r="JAX11" s="2"/>
+      <c r="JBB11" s="2"/>
+      <c r="JBF11" s="2"/>
+      <c r="JBJ11" s="2"/>
+      <c r="JBN11" s="2"/>
+      <c r="JBR11" s="2"/>
+      <c r="JBV11" s="2"/>
+      <c r="JBZ11" s="2"/>
+      <c r="JCD11" s="2"/>
+      <c r="JCH11" s="2"/>
+      <c r="JCL11" s="2"/>
+      <c r="JCP11" s="2"/>
+      <c r="JCT11" s="2"/>
+      <c r="JCX11" s="2"/>
+      <c r="JDB11" s="2"/>
+      <c r="JDF11" s="2"/>
+      <c r="JDJ11" s="2"/>
+      <c r="JDN11" s="2"/>
+      <c r="JDR11" s="2"/>
+      <c r="JDV11" s="2"/>
+      <c r="JDZ11" s="2"/>
+      <c r="JED11" s="2"/>
+      <c r="JEH11" s="2"/>
+      <c r="JEL11" s="2"/>
+      <c r="JEP11" s="2"/>
+      <c r="JET11" s="2"/>
+      <c r="JEX11" s="2"/>
+      <c r="JFB11" s="2"/>
+      <c r="JFF11" s="2"/>
+      <c r="JFJ11" s="2"/>
+      <c r="JFN11" s="2"/>
+      <c r="JFR11" s="2"/>
+      <c r="JFV11" s="2"/>
+      <c r="JFZ11" s="2"/>
+      <c r="JGD11" s="2"/>
+      <c r="JGH11" s="2"/>
+      <c r="JGL11" s="2"/>
+      <c r="JGP11" s="2"/>
+      <c r="JGT11" s="2"/>
+      <c r="JGX11" s="2"/>
+      <c r="JHB11" s="2"/>
+      <c r="JHF11" s="2"/>
+      <c r="JHJ11" s="2"/>
+      <c r="JHN11" s="2"/>
+      <c r="JHR11" s="2"/>
+      <c r="JHV11" s="2"/>
+      <c r="JHZ11" s="2"/>
+      <c r="JID11" s="2"/>
+      <c r="JIH11" s="2"/>
+      <c r="JIL11" s="2"/>
+      <c r="JIP11" s="2"/>
+      <c r="JIT11" s="2"/>
+      <c r="JIX11" s="2"/>
+      <c r="JJB11" s="2"/>
+      <c r="JJF11" s="2"/>
+      <c r="JJJ11" s="2"/>
+      <c r="JJN11" s="2"/>
+      <c r="JJR11" s="2"/>
+      <c r="JJV11" s="2"/>
+      <c r="JJZ11" s="2"/>
+      <c r="JKD11" s="2"/>
+      <c r="JKH11" s="2"/>
+      <c r="JKL11" s="2"/>
+      <c r="JKP11" s="2"/>
+      <c r="JKT11" s="2"/>
+      <c r="JKX11" s="2"/>
+      <c r="JLB11" s="2"/>
+      <c r="JLF11" s="2"/>
+      <c r="JLJ11" s="2"/>
+      <c r="JLN11" s="2"/>
+      <c r="JLR11" s="2"/>
+      <c r="JLV11" s="2"/>
+      <c r="JLZ11" s="2"/>
+      <c r="JMD11" s="2"/>
+      <c r="JMH11" s="2"/>
+      <c r="JML11" s="2"/>
+      <c r="JMP11" s="2"/>
+      <c r="JMT11" s="2"/>
+      <c r="JMX11" s="2"/>
+      <c r="JNB11" s="2"/>
+      <c r="JNF11" s="2"/>
+      <c r="JNJ11" s="2"/>
+      <c r="JNN11" s="2"/>
+      <c r="JNR11" s="2"/>
+      <c r="JNV11" s="2"/>
+      <c r="JNZ11" s="2"/>
+      <c r="JOD11" s="2"/>
+      <c r="JOH11" s="2"/>
+      <c r="JOL11" s="2"/>
+      <c r="JOP11" s="2"/>
+      <c r="JOT11" s="2"/>
+      <c r="JOX11" s="2"/>
+      <c r="JPB11" s="2"/>
+      <c r="JPF11" s="2"/>
+      <c r="JPJ11" s="2"/>
+      <c r="JPN11" s="2"/>
+      <c r="JPR11" s="2"/>
+      <c r="JPV11" s="2"/>
+      <c r="JPZ11" s="2"/>
+      <c r="JQD11" s="2"/>
+      <c r="JQH11" s="2"/>
+      <c r="JQL11" s="2"/>
+      <c r="JQP11" s="2"/>
+      <c r="JQT11" s="2"/>
+      <c r="JQX11" s="2"/>
+      <c r="JRB11" s="2"/>
+      <c r="JRF11" s="2"/>
+      <c r="JRJ11" s="2"/>
+      <c r="JRN11" s="2"/>
+      <c r="JRR11" s="2"/>
+      <c r="JRV11" s="2"/>
+      <c r="JRZ11" s="2"/>
+      <c r="JSD11" s="2"/>
+      <c r="JSH11" s="2"/>
+      <c r="JSL11" s="2"/>
+      <c r="JSP11" s="2"/>
+      <c r="JST11" s="2"/>
+      <c r="JSX11" s="2"/>
+      <c r="JTB11" s="2"/>
+      <c r="JTF11" s="2"/>
+      <c r="JTJ11" s="2"/>
+      <c r="JTN11" s="2"/>
+      <c r="JTR11" s="2"/>
+      <c r="JTV11" s="2"/>
+      <c r="JTZ11" s="2"/>
+      <c r="JUD11" s="2"/>
+      <c r="JUH11" s="2"/>
+      <c r="JUL11" s="2"/>
+      <c r="JUP11" s="2"/>
+      <c r="JUT11" s="2"/>
+      <c r="JUX11" s="2"/>
+      <c r="JVB11" s="2"/>
+      <c r="JVF11" s="2"/>
+      <c r="JVJ11" s="2"/>
+      <c r="JVN11" s="2"/>
+      <c r="JVR11" s="2"/>
+      <c r="JVV11" s="2"/>
+      <c r="JVZ11" s="2"/>
+      <c r="JWD11" s="2"/>
+      <c r="JWH11" s="2"/>
+      <c r="JWL11" s="2"/>
+      <c r="JWP11" s="2"/>
+      <c r="JWT11" s="2"/>
+      <c r="JWX11" s="2"/>
+      <c r="JXB11" s="2"/>
+      <c r="JXF11" s="2"/>
+      <c r="JXJ11" s="2"/>
+      <c r="JXN11" s="2"/>
+      <c r="JXR11" s="2"/>
+      <c r="JXV11" s="2"/>
+      <c r="JXZ11" s="2"/>
+      <c r="JYD11" s="2"/>
+      <c r="JYH11" s="2"/>
+      <c r="JYL11" s="2"/>
+      <c r="JYP11" s="2"/>
+      <c r="JYT11" s="2"/>
+      <c r="JYX11" s="2"/>
+      <c r="JZB11" s="2"/>
+      <c r="JZF11" s="2"/>
+      <c r="JZJ11" s="2"/>
+      <c r="JZN11" s="2"/>
+      <c r="JZR11" s="2"/>
+      <c r="JZV11" s="2"/>
+      <c r="JZZ11" s="2"/>
+      <c r="KAD11" s="2"/>
+      <c r="KAH11" s="2"/>
+      <c r="KAL11" s="2"/>
+      <c r="KAP11" s="2"/>
+      <c r="KAT11" s="2"/>
+      <c r="KAX11" s="2"/>
+      <c r="KBB11" s="2"/>
+      <c r="KBF11" s="2"/>
+      <c r="KBJ11" s="2"/>
+      <c r="KBN11" s="2"/>
+      <c r="KBR11" s="2"/>
+      <c r="KBV11" s="2"/>
+      <c r="KBZ11" s="2"/>
+      <c r="KCD11" s="2"/>
+      <c r="KCH11" s="2"/>
+      <c r="KCL11" s="2"/>
+      <c r="KCP11" s="2"/>
+      <c r="KCT11" s="2"/>
+      <c r="KCX11" s="2"/>
+      <c r="KDB11" s="2"/>
+      <c r="KDF11" s="2"/>
+      <c r="KDJ11" s="2"/>
+      <c r="KDN11" s="2"/>
+      <c r="KDR11" s="2"/>
+      <c r="KDV11" s="2"/>
+      <c r="KDZ11" s="2"/>
+      <c r="KED11" s="2"/>
+      <c r="KEH11" s="2"/>
+      <c r="KEL11" s="2"/>
+      <c r="KEP11" s="2"/>
+      <c r="KET11" s="2"/>
+      <c r="KEX11" s="2"/>
+      <c r="KFB11" s="2"/>
+      <c r="KFF11" s="2"/>
+      <c r="KFJ11" s="2"/>
+      <c r="KFN11" s="2"/>
+      <c r="KFR11" s="2"/>
+      <c r="KFV11" s="2"/>
+      <c r="KFZ11" s="2"/>
+      <c r="KGD11" s="2"/>
+      <c r="KGH11" s="2"/>
+      <c r="KGL11" s="2"/>
+      <c r="KGP11" s="2"/>
+      <c r="KGT11" s="2"/>
+      <c r="KGX11" s="2"/>
+      <c r="KHB11" s="2"/>
+      <c r="KHF11" s="2"/>
+      <c r="KHJ11" s="2"/>
+      <c r="KHN11" s="2"/>
+      <c r="KHR11" s="2"/>
+      <c r="KHV11" s="2"/>
+      <c r="KHZ11" s="2"/>
+      <c r="KID11" s="2"/>
+      <c r="KIH11" s="2"/>
+      <c r="KIL11" s="2"/>
+      <c r="KIP11" s="2"/>
+      <c r="KIT11" s="2"/>
+      <c r="KIX11" s="2"/>
+      <c r="KJB11" s="2"/>
+      <c r="KJF11" s="2"/>
+      <c r="KJJ11" s="2"/>
+      <c r="KJN11" s="2"/>
+      <c r="KJR11" s="2"/>
+      <c r="KJV11" s="2"/>
+      <c r="KJZ11" s="2"/>
+      <c r="KKD11" s="2"/>
+      <c r="KKH11" s="2"/>
+      <c r="KKL11" s="2"/>
+      <c r="KKP11" s="2"/>
+      <c r="KKT11" s="2"/>
+      <c r="KKX11" s="2"/>
+      <c r="KLB11" s="2"/>
+      <c r="KLF11" s="2"/>
+      <c r="KLJ11" s="2"/>
+      <c r="KLN11" s="2"/>
+      <c r="KLR11" s="2"/>
+      <c r="KLV11" s="2"/>
+      <c r="KLZ11" s="2"/>
+      <c r="KMD11" s="2"/>
+      <c r="KMH11" s="2"/>
+      <c r="KML11" s="2"/>
+      <c r="KMP11" s="2"/>
+      <c r="KMT11" s="2"/>
+      <c r="KMX11" s="2"/>
+      <c r="KNB11" s="2"/>
+      <c r="KNF11" s="2"/>
+      <c r="KNJ11" s="2"/>
+      <c r="KNN11" s="2"/>
+      <c r="KNR11" s="2"/>
+      <c r="KNV11" s="2"/>
+      <c r="KNZ11" s="2"/>
+      <c r="KOD11" s="2"/>
+      <c r="KOH11" s="2"/>
+      <c r="KOL11" s="2"/>
+      <c r="KOP11" s="2"/>
+      <c r="KOT11" s="2"/>
+      <c r="KOX11" s="2"/>
+      <c r="KPB11" s="2"/>
+      <c r="KPF11" s="2"/>
+      <c r="KPJ11" s="2"/>
+      <c r="KPN11" s="2"/>
+      <c r="KPR11" s="2"/>
+      <c r="KPV11" s="2"/>
+      <c r="KPZ11" s="2"/>
+      <c r="KQD11" s="2"/>
+      <c r="KQH11" s="2"/>
+      <c r="KQL11" s="2"/>
+      <c r="KQP11" s="2"/>
+      <c r="KQT11" s="2"/>
+      <c r="KQX11" s="2"/>
+      <c r="KRB11" s="2"/>
+      <c r="KRF11" s="2"/>
+      <c r="KRJ11" s="2"/>
+      <c r="KRN11" s="2"/>
+      <c r="KRR11" s="2"/>
+      <c r="KRV11" s="2"/>
+      <c r="KRZ11" s="2"/>
+      <c r="KSD11" s="2"/>
+      <c r="KSH11" s="2"/>
+      <c r="KSL11" s="2"/>
+      <c r="KSP11" s="2"/>
+      <c r="KST11" s="2"/>
+      <c r="KSX11" s="2"/>
+      <c r="KTB11" s="2"/>
+      <c r="KTF11" s="2"/>
+      <c r="KTJ11" s="2"/>
+      <c r="KTN11" s="2"/>
+      <c r="KTR11" s="2"/>
+      <c r="KTV11" s="2"/>
+      <c r="KTZ11" s="2"/>
+      <c r="KUD11" s="2"/>
+      <c r="KUH11" s="2"/>
+      <c r="KUL11" s="2"/>
+      <c r="KUP11" s="2"/>
+      <c r="KUT11" s="2"/>
+      <c r="KUX11" s="2"/>
+      <c r="KVB11" s="2"/>
+      <c r="KVF11" s="2"/>
+      <c r="KVJ11" s="2"/>
+      <c r="KVN11" s="2"/>
+      <c r="KVR11" s="2"/>
+      <c r="KVV11" s="2"/>
+      <c r="KVZ11" s="2"/>
+      <c r="KWD11" s="2"/>
+      <c r="KWH11" s="2"/>
+      <c r="KWL11" s="2"/>
+      <c r="KWP11" s="2"/>
+      <c r="KWT11" s="2"/>
+      <c r="KWX11" s="2"/>
+      <c r="KXB11" s="2"/>
+      <c r="KXF11" s="2"/>
+      <c r="KXJ11" s="2"/>
+      <c r="KXN11" s="2"/>
+      <c r="KXR11" s="2"/>
+      <c r="KXV11" s="2"/>
+      <c r="KXZ11" s="2"/>
+      <c r="KYD11" s="2"/>
+      <c r="KYH11" s="2"/>
+      <c r="KYL11" s="2"/>
+      <c r="KYP11" s="2"/>
+      <c r="KYT11" s="2"/>
+      <c r="KYX11" s="2"/>
+      <c r="KZB11" s="2"/>
+      <c r="KZF11" s="2"/>
+      <c r="KZJ11" s="2"/>
+      <c r="KZN11" s="2"/>
+      <c r="KZR11" s="2"/>
+      <c r="KZV11" s="2"/>
+      <c r="KZZ11" s="2"/>
+      <c r="LAD11" s="2"/>
+      <c r="LAH11" s="2"/>
+      <c r="LAL11" s="2"/>
+      <c r="LAP11" s="2"/>
+      <c r="LAT11" s="2"/>
+      <c r="LAX11" s="2"/>
+      <c r="LBB11" s="2"/>
+      <c r="LBF11" s="2"/>
+      <c r="LBJ11" s="2"/>
+      <c r="LBN11" s="2"/>
+      <c r="LBR11" s="2"/>
+      <c r="LBV11" s="2"/>
+      <c r="LBZ11" s="2"/>
+      <c r="LCD11" s="2"/>
+      <c r="LCH11" s="2"/>
+      <c r="LCL11" s="2"/>
+      <c r="LCP11" s="2"/>
+      <c r="LCT11" s="2"/>
+      <c r="LCX11" s="2"/>
+      <c r="LDB11" s="2"/>
+      <c r="LDF11" s="2"/>
+      <c r="LDJ11" s="2"/>
+      <c r="LDN11" s="2"/>
+      <c r="LDR11" s="2"/>
+      <c r="LDV11" s="2"/>
+      <c r="LDZ11" s="2"/>
+      <c r="LED11" s="2"/>
+      <c r="LEH11" s="2"/>
+      <c r="LEL11" s="2"/>
+      <c r="LEP11" s="2"/>
+      <c r="LET11" s="2"/>
+      <c r="LEX11" s="2"/>
+      <c r="LFB11" s="2"/>
+      <c r="LFF11" s="2"/>
+      <c r="LFJ11" s="2"/>
+      <c r="LFN11" s="2"/>
+      <c r="LFR11" s="2"/>
+      <c r="LFV11" s="2"/>
+      <c r="LFZ11" s="2"/>
+      <c r="LGD11" s="2"/>
+      <c r="LGH11" s="2"/>
+      <c r="LGL11" s="2"/>
+      <c r="LGP11" s="2"/>
+      <c r="LGT11" s="2"/>
+      <c r="LGX11" s="2"/>
+      <c r="LHB11" s="2"/>
+      <c r="LHF11" s="2"/>
+      <c r="LHJ11" s="2"/>
+      <c r="LHN11" s="2"/>
+      <c r="LHR11" s="2"/>
+      <c r="LHV11" s="2"/>
+      <c r="LHZ11" s="2"/>
+      <c r="LID11" s="2"/>
+      <c r="LIH11" s="2"/>
+      <c r="LIL11" s="2"/>
+      <c r="LIP11" s="2"/>
+      <c r="LIT11" s="2"/>
+      <c r="LIX11" s="2"/>
+      <c r="LJB11" s="2"/>
+      <c r="LJF11" s="2"/>
+      <c r="LJJ11" s="2"/>
+      <c r="LJN11" s="2"/>
+      <c r="LJR11" s="2"/>
+      <c r="LJV11" s="2"/>
+      <c r="LJZ11" s="2"/>
+      <c r="LKD11" s="2"/>
+      <c r="LKH11" s="2"/>
+      <c r="LKL11" s="2"/>
+      <c r="LKP11" s="2"/>
+      <c r="LKT11" s="2"/>
+      <c r="LKX11" s="2"/>
+      <c r="LLB11" s="2"/>
+      <c r="LLF11" s="2"/>
+      <c r="LLJ11" s="2"/>
+      <c r="LLN11" s="2"/>
+      <c r="LLR11" s="2"/>
+      <c r="LLV11" s="2"/>
+      <c r="LLZ11" s="2"/>
+      <c r="LMD11" s="2"/>
+      <c r="LMH11" s="2"/>
+      <c r="LML11" s="2"/>
+      <c r="LMP11" s="2"/>
+      <c r="LMT11" s="2"/>
+      <c r="LMX11" s="2"/>
+      <c r="LNB11" s="2"/>
+      <c r="LNF11" s="2"/>
+      <c r="LNJ11" s="2"/>
+      <c r="LNN11" s="2"/>
+      <c r="LNR11" s="2"/>
+      <c r="LNV11" s="2"/>
+      <c r="LNZ11" s="2"/>
+      <c r="LOD11" s="2"/>
+      <c r="LOH11" s="2"/>
+      <c r="LOL11" s="2"/>
+      <c r="LOP11" s="2"/>
+      <c r="LOT11" s="2"/>
+      <c r="LOX11" s="2"/>
+      <c r="LPB11" s="2"/>
+      <c r="LPF11" s="2"/>
+      <c r="LPJ11" s="2"/>
+      <c r="LPN11" s="2"/>
+      <c r="LPR11" s="2"/>
+      <c r="LPV11" s="2"/>
+      <c r="LPZ11" s="2"/>
+      <c r="LQD11" s="2"/>
+      <c r="LQH11" s="2"/>
+      <c r="LQL11" s="2"/>
+      <c r="LQP11" s="2"/>
+      <c r="LQT11" s="2"/>
+      <c r="LQX11" s="2"/>
+      <c r="LRB11" s="2"/>
+      <c r="LRF11" s="2"/>
+      <c r="LRJ11" s="2"/>
+      <c r="LRN11" s="2"/>
+      <c r="LRR11" s="2"/>
+      <c r="LRV11" s="2"/>
+      <c r="LRZ11" s="2"/>
+      <c r="LSD11" s="2"/>
+      <c r="LSH11" s="2"/>
+      <c r="LSL11" s="2"/>
+      <c r="LSP11" s="2"/>
+      <c r="LST11" s="2"/>
+      <c r="LSX11" s="2"/>
+      <c r="LTB11" s="2"/>
+      <c r="LTF11" s="2"/>
+      <c r="LTJ11" s="2"/>
+      <c r="LTN11" s="2"/>
+      <c r="LTR11" s="2"/>
+      <c r="LTV11" s="2"/>
+      <c r="LTZ11" s="2"/>
+      <c r="LUD11" s="2"/>
+      <c r="LUH11" s="2"/>
+      <c r="LUL11" s="2"/>
+      <c r="LUP11" s="2"/>
+      <c r="LUT11" s="2"/>
+      <c r="LUX11" s="2"/>
+      <c r="LVB11" s="2"/>
+      <c r="LVF11" s="2"/>
+      <c r="LVJ11" s="2"/>
+      <c r="LVN11" s="2"/>
+      <c r="LVR11" s="2"/>
+      <c r="LVV11" s="2"/>
+      <c r="LVZ11" s="2"/>
+      <c r="LWD11" s="2"/>
+      <c r="LWH11" s="2"/>
+      <c r="LWL11" s="2"/>
+      <c r="LWP11" s="2"/>
+      <c r="LWT11" s="2"/>
+      <c r="LWX11" s="2"/>
+      <c r="LXB11" s="2"/>
+      <c r="LXF11" s="2"/>
+      <c r="LXJ11" s="2"/>
+      <c r="LXN11" s="2"/>
+      <c r="LXR11" s="2"/>
+      <c r="LXV11" s="2"/>
+      <c r="LXZ11" s="2"/>
+      <c r="LYD11" s="2"/>
+      <c r="LYH11" s="2"/>
+      <c r="LYL11" s="2"/>
+      <c r="LYP11" s="2"/>
+      <c r="LYT11" s="2"/>
+      <c r="LYX11" s="2"/>
+      <c r="LZB11" s="2"/>
+      <c r="LZF11" s="2"/>
+      <c r="LZJ11" s="2"/>
+      <c r="LZN11" s="2"/>
+      <c r="LZR11" s="2"/>
+      <c r="LZV11" s="2"/>
+      <c r="LZZ11" s="2"/>
+      <c r="MAD11" s="2"/>
+      <c r="MAH11" s="2"/>
+      <c r="MAL11" s="2"/>
+      <c r="MAP11" s="2"/>
+      <c r="MAT11" s="2"/>
+      <c r="MAX11" s="2"/>
+      <c r="MBB11" s="2"/>
+      <c r="MBF11" s="2"/>
+      <c r="MBJ11" s="2"/>
+      <c r="MBN11" s="2"/>
+      <c r="MBR11" s="2"/>
+      <c r="MBV11" s="2"/>
+      <c r="MBZ11" s="2"/>
+      <c r="MCD11" s="2"/>
+      <c r="MCH11" s="2"/>
+      <c r="MCL11" s="2"/>
+      <c r="MCP11" s="2"/>
+      <c r="MCT11" s="2"/>
+      <c r="MCX11" s="2"/>
+      <c r="MDB11" s="2"/>
+      <c r="MDF11" s="2"/>
+      <c r="MDJ11" s="2"/>
+      <c r="MDN11" s="2"/>
+      <c r="MDR11" s="2"/>
+      <c r="MDV11" s="2"/>
+      <c r="MDZ11" s="2"/>
+      <c r="MED11" s="2"/>
+      <c r="MEH11" s="2"/>
+      <c r="MEL11" s="2"/>
+      <c r="MEP11" s="2"/>
+      <c r="MET11" s="2"/>
+      <c r="MEX11" s="2"/>
+      <c r="MFB11" s="2"/>
+      <c r="MFF11" s="2"/>
+      <c r="MFJ11" s="2"/>
+      <c r="MFN11" s="2"/>
+      <c r="MFR11" s="2"/>
+      <c r="MFV11" s="2"/>
+      <c r="MFZ11" s="2"/>
+      <c r="MGD11" s="2"/>
+      <c r="MGH11" s="2"/>
+      <c r="MGL11" s="2"/>
+      <c r="MGP11" s="2"/>
+      <c r="MGT11" s="2"/>
+      <c r="MGX11" s="2"/>
+      <c r="MHB11" s="2"/>
+      <c r="MHF11" s="2"/>
+      <c r="MHJ11" s="2"/>
+      <c r="MHN11" s="2"/>
+      <c r="MHR11" s="2"/>
+      <c r="MHV11" s="2"/>
+      <c r="MHZ11" s="2"/>
+      <c r="MID11" s="2"/>
+      <c r="MIH11" s="2"/>
+      <c r="MIL11" s="2"/>
+      <c r="MIP11" s="2"/>
+      <c r="MIT11" s="2"/>
+      <c r="MIX11" s="2"/>
+      <c r="MJB11" s="2"/>
+      <c r="MJF11" s="2"/>
+      <c r="MJJ11" s="2"/>
+      <c r="MJN11" s="2"/>
+      <c r="MJR11" s="2"/>
+      <c r="MJV11" s="2"/>
+      <c r="MJZ11" s="2"/>
+      <c r="MKD11" s="2"/>
+      <c r="MKH11" s="2"/>
+      <c r="MKL11" s="2"/>
+      <c r="MKP11" s="2"/>
+      <c r="MKT11" s="2"/>
+      <c r="MKX11" s="2"/>
+      <c r="MLB11" s="2"/>
+      <c r="MLF11" s="2"/>
+      <c r="MLJ11" s="2"/>
+      <c r="MLN11" s="2"/>
+      <c r="MLR11" s="2"/>
+      <c r="MLV11" s="2"/>
+      <c r="MLZ11" s="2"/>
+      <c r="MMD11" s="2"/>
+      <c r="MMH11" s="2"/>
+      <c r="MML11" s="2"/>
+      <c r="MMP11" s="2"/>
+      <c r="MMT11" s="2"/>
+      <c r="MMX11" s="2"/>
+      <c r="MNB11" s="2"/>
+      <c r="MNF11" s="2"/>
+      <c r="MNJ11" s="2"/>
+      <c r="MNN11" s="2"/>
+      <c r="MNR11" s="2"/>
+      <c r="MNV11" s="2"/>
+      <c r="MNZ11" s="2"/>
+      <c r="MOD11" s="2"/>
+      <c r="MOH11" s="2"/>
+      <c r="MOL11" s="2"/>
+      <c r="MOP11" s="2"/>
+      <c r="MOT11" s="2"/>
+      <c r="MOX11" s="2"/>
+      <c r="MPB11" s="2"/>
+      <c r="MPF11" s="2"/>
+      <c r="MPJ11" s="2"/>
+      <c r="MPN11" s="2"/>
+      <c r="MPR11" s="2"/>
+      <c r="MPV11" s="2"/>
+      <c r="MPZ11" s="2"/>
+      <c r="MQD11" s="2"/>
+      <c r="MQH11" s="2"/>
+      <c r="MQL11" s="2"/>
+      <c r="MQP11" s="2"/>
+      <c r="MQT11" s="2"/>
+      <c r="MQX11" s="2"/>
+      <c r="MRB11" s="2"/>
+      <c r="MRF11" s="2"/>
+      <c r="MRJ11" s="2"/>
+      <c r="MRN11" s="2"/>
+      <c r="MRR11" s="2"/>
+      <c r="MRV11" s="2"/>
+      <c r="MRZ11" s="2"/>
+      <c r="MSD11" s="2"/>
+      <c r="MSH11" s="2"/>
+      <c r="MSL11" s="2"/>
+      <c r="MSP11" s="2"/>
+      <c r="MST11" s="2"/>
+      <c r="MSX11" s="2"/>
+      <c r="MTB11" s="2"/>
+      <c r="MTF11" s="2"/>
+      <c r="MTJ11" s="2"/>
+      <c r="MTN11" s="2"/>
+      <c r="MTR11" s="2"/>
+      <c r="MTV11" s="2"/>
+      <c r="MTZ11" s="2"/>
+      <c r="MUD11" s="2"/>
+      <c r="MUH11" s="2"/>
+      <c r="MUL11" s="2"/>
+      <c r="MUP11" s="2"/>
+      <c r="MUT11" s="2"/>
+      <c r="MUX11" s="2"/>
+      <c r="MVB11" s="2"/>
+      <c r="MVF11" s="2"/>
+      <c r="MVJ11" s="2"/>
+      <c r="MVN11" s="2"/>
+      <c r="MVR11" s="2"/>
+      <c r="MVV11" s="2"/>
+      <c r="MVZ11" s="2"/>
+      <c r="MWD11" s="2"/>
+      <c r="MWH11" s="2"/>
+      <c r="MWL11" s="2"/>
+      <c r="MWP11" s="2"/>
+      <c r="MWT11" s="2"/>
+      <c r="MWX11" s="2"/>
+      <c r="MXB11" s="2"/>
+      <c r="MXF11" s="2"/>
+      <c r="MXJ11" s="2"/>
+      <c r="MXN11" s="2"/>
+      <c r="MXR11" s="2"/>
+      <c r="MXV11" s="2"/>
+      <c r="MXZ11" s="2"/>
+      <c r="MYD11" s="2"/>
+      <c r="MYH11" s="2"/>
+      <c r="MYL11" s="2"/>
+      <c r="MYP11" s="2"/>
+      <c r="MYT11" s="2"/>
+      <c r="MYX11" s="2"/>
+      <c r="MZB11" s="2"/>
+      <c r="MZF11" s="2"/>
+      <c r="MZJ11" s="2"/>
+      <c r="MZN11" s="2"/>
+      <c r="MZR11" s="2"/>
+      <c r="MZV11" s="2"/>
+      <c r="MZZ11" s="2"/>
+      <c r="NAD11" s="2"/>
+      <c r="NAH11" s="2"/>
+      <c r="NAL11" s="2"/>
+      <c r="NAP11" s="2"/>
+      <c r="NAT11" s="2"/>
+      <c r="NAX11" s="2"/>
+      <c r="NBB11" s="2"/>
+      <c r="NBF11" s="2"/>
+      <c r="NBJ11" s="2"/>
+      <c r="NBN11" s="2"/>
+      <c r="NBR11" s="2"/>
+      <c r="NBV11" s="2"/>
+      <c r="NBZ11" s="2"/>
+      <c r="NCD11" s="2"/>
+      <c r="NCH11" s="2"/>
+      <c r="NCL11" s="2"/>
+      <c r="NCP11" s="2"/>
+      <c r="NCT11" s="2"/>
+      <c r="NCX11" s="2"/>
+      <c r="NDB11" s="2"/>
+      <c r="NDF11" s="2"/>
+      <c r="NDJ11" s="2"/>
+      <c r="NDN11" s="2"/>
+      <c r="NDR11" s="2"/>
+      <c r="NDV11" s="2"/>
+      <c r="NDZ11" s="2"/>
+      <c r="NED11" s="2"/>
+      <c r="NEH11" s="2"/>
+      <c r="NEL11" s="2"/>
+      <c r="NEP11" s="2"/>
+      <c r="NET11" s="2"/>
+      <c r="NEX11" s="2"/>
+      <c r="NFB11" s="2"/>
+      <c r="NFF11" s="2"/>
+      <c r="NFJ11" s="2"/>
+      <c r="NFN11" s="2"/>
+      <c r="NFR11" s="2"/>
+      <c r="NFV11" s="2"/>
+      <c r="NFZ11" s="2"/>
+      <c r="NGD11" s="2"/>
+      <c r="NGH11" s="2"/>
+      <c r="NGL11" s="2"/>
+      <c r="NGP11" s="2"/>
+      <c r="NGT11" s="2"/>
+      <c r="NGX11" s="2"/>
+      <c r="NHB11" s="2"/>
+      <c r="NHF11" s="2"/>
+      <c r="NHJ11" s="2"/>
+      <c r="NHN11" s="2"/>
+      <c r="NHR11" s="2"/>
+      <c r="NHV11" s="2"/>
+      <c r="NHZ11" s="2"/>
+      <c r="NID11" s="2"/>
+      <c r="NIH11" s="2"/>
+      <c r="NIL11" s="2"/>
+      <c r="NIP11" s="2"/>
+      <c r="NIT11" s="2"/>
+      <c r="NIX11" s="2"/>
+      <c r="NJB11" s="2"/>
+      <c r="NJF11" s="2"/>
+      <c r="NJJ11" s="2"/>
+      <c r="NJN11" s="2"/>
+      <c r="NJR11" s="2"/>
+      <c r="NJV11" s="2"/>
+      <c r="NJZ11" s="2"/>
+      <c r="NKD11" s="2"/>
+      <c r="NKH11" s="2"/>
+      <c r="NKL11" s="2"/>
+      <c r="NKP11" s="2"/>
+      <c r="NKT11" s="2"/>
+      <c r="NKX11" s="2"/>
+      <c r="NLB11" s="2"/>
+      <c r="NLF11" s="2"/>
+      <c r="NLJ11" s="2"/>
+      <c r="NLN11" s="2"/>
+      <c r="NLR11" s="2"/>
+      <c r="NLV11" s="2"/>
+      <c r="NLZ11" s="2"/>
+      <c r="NMD11" s="2"/>
+      <c r="NMH11" s="2"/>
+      <c r="NML11" s="2"/>
+      <c r="NMP11" s="2"/>
+      <c r="NMT11" s="2"/>
+      <c r="NMX11" s="2"/>
+      <c r="NNB11" s="2"/>
+      <c r="NNF11" s="2"/>
+      <c r="NNJ11" s="2"/>
+      <c r="NNN11" s="2"/>
+      <c r="NNR11" s="2"/>
+      <c r="NNV11" s="2"/>
+      <c r="NNZ11" s="2"/>
+      <c r="NOD11" s="2"/>
+      <c r="NOH11" s="2"/>
+      <c r="NOL11" s="2"/>
+      <c r="NOP11" s="2"/>
+      <c r="NOT11" s="2"/>
+      <c r="NOX11" s="2"/>
+      <c r="NPB11" s="2"/>
+      <c r="NPF11" s="2"/>
+      <c r="NPJ11" s="2"/>
+      <c r="NPN11" s="2"/>
+      <c r="NPR11" s="2"/>
+      <c r="NPV11" s="2"/>
+      <c r="NPZ11" s="2"/>
+      <c r="NQD11" s="2"/>
+      <c r="NQH11" s="2"/>
+      <c r="NQL11" s="2"/>
+      <c r="NQP11" s="2"/>
+      <c r="NQT11" s="2"/>
+      <c r="NQX11" s="2"/>
+      <c r="NRB11" s="2"/>
+      <c r="NRF11" s="2"/>
+      <c r="NRJ11" s="2"/>
+      <c r="NRN11" s="2"/>
+      <c r="NRR11" s="2"/>
+      <c r="NRV11" s="2"/>
+      <c r="NRZ11" s="2"/>
+      <c r="NSD11" s="2"/>
+      <c r="NSH11" s="2"/>
+      <c r="NSL11" s="2"/>
+      <c r="NSP11" s="2"/>
+      <c r="NST11" s="2"/>
+      <c r="NSX11" s="2"/>
+      <c r="NTB11" s="2"/>
+      <c r="NTF11" s="2"/>
+      <c r="NTJ11" s="2"/>
+      <c r="NTN11" s="2"/>
+      <c r="NTR11" s="2"/>
+      <c r="NTV11" s="2"/>
+      <c r="NTZ11" s="2"/>
+      <c r="NUD11" s="2"/>
+      <c r="NUH11" s="2"/>
+      <c r="NUL11" s="2"/>
+      <c r="NUP11" s="2"/>
+      <c r="NUT11" s="2"/>
+      <c r="NUX11" s="2"/>
+      <c r="NVB11" s="2"/>
+      <c r="NVF11" s="2"/>
+      <c r="NVJ11" s="2"/>
+      <c r="NVN11" s="2"/>
+      <c r="NVR11" s="2"/>
+      <c r="NVV11" s="2"/>
+      <c r="NVZ11" s="2"/>
+      <c r="NWD11" s="2"/>
+      <c r="NWH11" s="2"/>
+      <c r="NWL11" s="2"/>
+      <c r="NWP11" s="2"/>
+      <c r="NWT11" s="2"/>
+      <c r="NWX11" s="2"/>
+      <c r="NXB11" s="2"/>
+      <c r="NXF11" s="2"/>
+      <c r="NXJ11" s="2"/>
+      <c r="NXN11" s="2"/>
+      <c r="NXR11" s="2"/>
+      <c r="NXV11" s="2"/>
+      <c r="NXZ11" s="2"/>
+      <c r="NYD11" s="2"/>
+      <c r="NYH11" s="2"/>
+      <c r="NYL11" s="2"/>
+      <c r="NYP11" s="2"/>
+      <c r="NYT11" s="2"/>
+      <c r="NYX11" s="2"/>
+      <c r="NZB11" s="2"/>
+      <c r="NZF11" s="2"/>
+      <c r="NZJ11" s="2"/>
+      <c r="NZN11" s="2"/>
+      <c r="NZR11" s="2"/>
+      <c r="NZV11" s="2"/>
+      <c r="NZZ11" s="2"/>
+      <c r="OAD11" s="2"/>
+      <c r="OAH11" s="2"/>
+      <c r="OAL11" s="2"/>
+      <c r="OAP11" s="2"/>
+      <c r="OAT11" s="2"/>
+      <c r="OAX11" s="2"/>
+      <c r="OBB11" s="2"/>
+      <c r="OBF11" s="2"/>
+      <c r="OBJ11" s="2"/>
+      <c r="OBN11" s="2"/>
+      <c r="OBR11" s="2"/>
+      <c r="OBV11" s="2"/>
+      <c r="OBZ11" s="2"/>
+      <c r="OCD11" s="2"/>
+      <c r="OCH11" s="2"/>
+      <c r="OCL11" s="2"/>
+      <c r="OCP11" s="2"/>
+      <c r="OCT11" s="2"/>
+      <c r="OCX11" s="2"/>
+      <c r="ODB11" s="2"/>
+      <c r="ODF11" s="2"/>
+      <c r="ODJ11" s="2"/>
+      <c r="ODN11" s="2"/>
+      <c r="ODR11" s="2"/>
+      <c r="ODV11" s="2"/>
+      <c r="ODZ11" s="2"/>
+      <c r="OED11" s="2"/>
+      <c r="OEH11" s="2"/>
+      <c r="OEL11" s="2"/>
+      <c r="OEP11" s="2"/>
+      <c r="OET11" s="2"/>
+      <c r="OEX11" s="2"/>
+      <c r="OFB11" s="2"/>
+      <c r="OFF11" s="2"/>
+      <c r="OFJ11" s="2"/>
+      <c r="OFN11" s="2"/>
+      <c r="OFR11" s="2"/>
+      <c r="OFV11" s="2"/>
+      <c r="OFZ11" s="2"/>
+      <c r="OGD11" s="2"/>
+      <c r="OGH11" s="2"/>
+      <c r="OGL11" s="2"/>
+      <c r="OGP11" s="2"/>
+      <c r="OGT11" s="2"/>
+      <c r="OGX11" s="2"/>
+      <c r="OHB11" s="2"/>
+      <c r="OHF11" s="2"/>
+      <c r="OHJ11" s="2"/>
+      <c r="OHN11" s="2"/>
+      <c r="OHR11" s="2"/>
+      <c r="OHV11" s="2"/>
+      <c r="OHZ11" s="2"/>
+      <c r="OID11" s="2"/>
+      <c r="OIH11" s="2"/>
+      <c r="OIL11" s="2"/>
+      <c r="OIP11" s="2"/>
+      <c r="OIT11" s="2"/>
+      <c r="OIX11" s="2"/>
+      <c r="OJB11" s="2"/>
+      <c r="OJF11" s="2"/>
+      <c r="OJJ11" s="2"/>
+      <c r="OJN11" s="2"/>
+      <c r="OJR11" s="2"/>
+      <c r="OJV11" s="2"/>
+      <c r="OJZ11" s="2"/>
+      <c r="OKD11" s="2"/>
+      <c r="OKH11" s="2"/>
+      <c r="OKL11" s="2"/>
+      <c r="OKP11" s="2"/>
+      <c r="OKT11" s="2"/>
+      <c r="OKX11" s="2"/>
+      <c r="OLB11" s="2"/>
+      <c r="OLF11" s="2"/>
+      <c r="OLJ11" s="2"/>
+      <c r="OLN11" s="2"/>
+      <c r="OLR11" s="2"/>
+      <c r="OLV11" s="2"/>
+      <c r="OLZ11" s="2"/>
+      <c r="OMD11" s="2"/>
+      <c r="OMH11" s="2"/>
+      <c r="OML11" s="2"/>
+      <c r="OMP11" s="2"/>
+      <c r="OMT11" s="2"/>
+      <c r="OMX11" s="2"/>
+      <c r="ONB11" s="2"/>
+      <c r="ONF11" s="2"/>
+      <c r="ONJ11" s="2"/>
+      <c r="ONN11" s="2"/>
+      <c r="ONR11" s="2"/>
+      <c r="ONV11" s="2"/>
+      <c r="ONZ11" s="2"/>
+      <c r="OOD11" s="2"/>
+      <c r="OOH11" s="2"/>
+      <c r="OOL11" s="2"/>
+      <c r="OOP11" s="2"/>
+      <c r="OOT11" s="2"/>
+      <c r="OOX11" s="2"/>
+      <c r="OPB11" s="2"/>
+      <c r="OPF11" s="2"/>
+      <c r="OPJ11" s="2"/>
+      <c r="OPN11" s="2"/>
+      <c r="OPR11" s="2"/>
+      <c r="OPV11" s="2"/>
+      <c r="OPZ11" s="2"/>
+      <c r="OQD11" s="2"/>
+      <c r="OQH11" s="2"/>
+      <c r="OQL11" s="2"/>
+      <c r="OQP11" s="2"/>
+      <c r="OQT11" s="2"/>
+      <c r="OQX11" s="2"/>
+      <c r="ORB11" s="2"/>
+      <c r="ORF11" s="2"/>
+      <c r="ORJ11" s="2"/>
+      <c r="ORN11" s="2"/>
+      <c r="ORR11" s="2"/>
+      <c r="ORV11" s="2"/>
+      <c r="ORZ11" s="2"/>
+      <c r="OSD11" s="2"/>
+      <c r="OSH11" s="2"/>
+      <c r="OSL11" s="2"/>
+      <c r="OSP11" s="2"/>
+      <c r="OST11" s="2"/>
+      <c r="OSX11" s="2"/>
+      <c r="OTB11" s="2"/>
+      <c r="OTF11" s="2"/>
+      <c r="OTJ11" s="2"/>
+      <c r="OTN11" s="2"/>
+      <c r="OTR11" s="2"/>
+      <c r="OTV11" s="2"/>
+      <c r="OTZ11" s="2"/>
+      <c r="OUD11" s="2"/>
+      <c r="OUH11" s="2"/>
+      <c r="OUL11" s="2"/>
+      <c r="OUP11" s="2"/>
+      <c r="OUT11" s="2"/>
+      <c r="OUX11" s="2"/>
+      <c r="OVB11" s="2"/>
+      <c r="OVF11" s="2"/>
+      <c r="OVJ11" s="2"/>
+      <c r="OVN11" s="2"/>
+      <c r="OVR11" s="2"/>
+      <c r="OVV11" s="2"/>
+      <c r="OVZ11" s="2"/>
+      <c r="OWD11" s="2"/>
+      <c r="OWH11" s="2"/>
+      <c r="OWL11" s="2"/>
+      <c r="OWP11" s="2"/>
+      <c r="OWT11" s="2"/>
+      <c r="OWX11" s="2"/>
+      <c r="OXB11" s="2"/>
+      <c r="OXF11" s="2"/>
+      <c r="OXJ11" s="2"/>
+      <c r="OXN11" s="2"/>
+      <c r="OXR11" s="2"/>
+      <c r="OXV11" s="2"/>
+      <c r="OXZ11" s="2"/>
+      <c r="OYD11" s="2"/>
+      <c r="OYH11" s="2"/>
+      <c r="OYL11" s="2"/>
+      <c r="OYP11" s="2"/>
+      <c r="OYT11" s="2"/>
+      <c r="OYX11" s="2"/>
+      <c r="OZB11" s="2"/>
+      <c r="OZF11" s="2"/>
+      <c r="OZJ11" s="2"/>
+      <c r="OZN11" s="2"/>
+      <c r="OZR11" s="2"/>
+      <c r="OZV11" s="2"/>
+      <c r="OZZ11" s="2"/>
+      <c r="PAD11" s="2"/>
+      <c r="PAH11" s="2"/>
+      <c r="PAL11" s="2"/>
+      <c r="PAP11" s="2"/>
+      <c r="PAT11" s="2"/>
+      <c r="PAX11" s="2"/>
+      <c r="PBB11" s="2"/>
+      <c r="PBF11" s="2"/>
+      <c r="PBJ11" s="2"/>
+      <c r="PBN11" s="2"/>
+      <c r="PBR11" s="2"/>
+      <c r="PBV11" s="2"/>
+      <c r="PBZ11" s="2"/>
+      <c r="PCD11" s="2"/>
+      <c r="PCH11" s="2"/>
+      <c r="PCL11" s="2"/>
+      <c r="PCP11" s="2"/>
+      <c r="PCT11" s="2"/>
+      <c r="PCX11" s="2"/>
+      <c r="PDB11" s="2"/>
+      <c r="PDF11" s="2"/>
+      <c r="PDJ11" s="2"/>
+      <c r="PDN11" s="2"/>
+      <c r="PDR11" s="2"/>
+      <c r="PDV11" s="2"/>
+      <c r="PDZ11" s="2"/>
+      <c r="PED11" s="2"/>
+      <c r="PEH11" s="2"/>
+      <c r="PEL11" s="2"/>
+      <c r="PEP11" s="2"/>
+      <c r="PET11" s="2"/>
+      <c r="PEX11" s="2"/>
+      <c r="PFB11" s="2"/>
+      <c r="PFF11" s="2"/>
+      <c r="PFJ11" s="2"/>
+      <c r="PFN11" s="2"/>
+      <c r="PFR11" s="2"/>
+      <c r="PFV11" s="2"/>
+      <c r="PFZ11" s="2"/>
+      <c r="PGD11" s="2"/>
+      <c r="PGH11" s="2"/>
+      <c r="PGL11" s="2"/>
+      <c r="PGP11" s="2"/>
+      <c r="PGT11" s="2"/>
+      <c r="PGX11" s="2"/>
+      <c r="PHB11" s="2"/>
+      <c r="PHF11" s="2"/>
+      <c r="PHJ11" s="2"/>
+      <c r="PHN11" s="2"/>
+      <c r="PHR11" s="2"/>
+      <c r="PHV11" s="2"/>
+      <c r="PHZ11" s="2"/>
+      <c r="PID11" s="2"/>
+      <c r="PIH11" s="2"/>
+      <c r="PIL11" s="2"/>
+      <c r="PIP11" s="2"/>
+      <c r="PIT11" s="2"/>
+      <c r="PIX11" s="2"/>
+      <c r="PJB11" s="2"/>
+      <c r="PJF11" s="2"/>
+      <c r="PJJ11" s="2"/>
+      <c r="PJN11" s="2"/>
+      <c r="PJR11" s="2"/>
+      <c r="PJV11" s="2"/>
+      <c r="PJZ11" s="2"/>
+      <c r="PKD11" s="2"/>
+      <c r="PKH11" s="2"/>
+      <c r="PKL11" s="2"/>
+      <c r="PKP11" s="2"/>
+      <c r="PKT11" s="2"/>
+      <c r="PKX11" s="2"/>
+      <c r="PLB11" s="2"/>
+      <c r="PLF11" s="2"/>
+      <c r="PLJ11" s="2"/>
+      <c r="PLN11" s="2"/>
+      <c r="PLR11" s="2"/>
+      <c r="PLV11" s="2"/>
+      <c r="PLZ11" s="2"/>
+      <c r="PMD11" s="2"/>
+      <c r="PMH11" s="2"/>
+      <c r="PML11" s="2"/>
+      <c r="PMP11" s="2"/>
+      <c r="PMT11" s="2"/>
+      <c r="PMX11" s="2"/>
+      <c r="PNB11" s="2"/>
+      <c r="PNF11" s="2"/>
+      <c r="PNJ11" s="2"/>
+      <c r="PNN11" s="2"/>
+      <c r="PNR11" s="2"/>
+      <c r="PNV11" s="2"/>
+      <c r="PNZ11" s="2"/>
+      <c r="POD11" s="2"/>
+      <c r="POH11" s="2"/>
+      <c r="POL11" s="2"/>
+      <c r="POP11" s="2"/>
+      <c r="POT11" s="2"/>
+      <c r="POX11" s="2"/>
+      <c r="PPB11" s="2"/>
+      <c r="PPF11" s="2"/>
+      <c r="PPJ11" s="2"/>
+      <c r="PPN11" s="2"/>
+      <c r="PPR11" s="2"/>
+      <c r="PPV11" s="2"/>
+      <c r="PPZ11" s="2"/>
+      <c r="PQD11" s="2"/>
+      <c r="PQH11" s="2"/>
+      <c r="PQL11" s="2"/>
+      <c r="PQP11" s="2"/>
+      <c r="PQT11" s="2"/>
+      <c r="PQX11" s="2"/>
+      <c r="PRB11" s="2"/>
+      <c r="PRF11" s="2"/>
+      <c r="PRJ11" s="2"/>
+      <c r="PRN11" s="2"/>
+      <c r="PRR11" s="2"/>
+      <c r="PRV11" s="2"/>
+      <c r="PRZ11" s="2"/>
+      <c r="PSD11" s="2"/>
+      <c r="PSH11" s="2"/>
+      <c r="PSL11" s="2"/>
+      <c r="PSP11" s="2"/>
+      <c r="PST11" s="2"/>
+      <c r="PSX11" s="2"/>
+      <c r="PTB11" s="2"/>
+      <c r="PTF11" s="2"/>
+      <c r="PTJ11" s="2"/>
+      <c r="PTN11" s="2"/>
+      <c r="PTR11" s="2"/>
+      <c r="PTV11" s="2"/>
+      <c r="PTZ11" s="2"/>
+      <c r="PUD11" s="2"/>
+      <c r="PUH11" s="2"/>
+      <c r="PUL11" s="2"/>
+      <c r="PUP11" s="2"/>
+      <c r="PUT11" s="2"/>
+      <c r="PUX11" s="2"/>
+      <c r="PVB11" s="2"/>
+      <c r="PVF11" s="2"/>
+      <c r="PVJ11" s="2"/>
+      <c r="PVN11" s="2"/>
+      <c r="PVR11" s="2"/>
+      <c r="PVV11" s="2"/>
+      <c r="PVZ11" s="2"/>
+      <c r="PWD11" s="2"/>
+      <c r="PWH11" s="2"/>
+      <c r="PWL11" s="2"/>
+      <c r="PWP11" s="2"/>
+      <c r="PWT11" s="2"/>
+      <c r="PWX11" s="2"/>
+      <c r="PXB11" s="2"/>
+      <c r="PXF11" s="2"/>
+      <c r="PXJ11" s="2"/>
+      <c r="PXN11" s="2"/>
+      <c r="PXR11" s="2"/>
+      <c r="PXV11" s="2"/>
+      <c r="PXZ11" s="2"/>
+      <c r="PYD11" s="2"/>
+      <c r="PYH11" s="2"/>
+      <c r="PYL11" s="2"/>
+      <c r="PYP11" s="2"/>
+      <c r="PYT11" s="2"/>
+      <c r="PYX11" s="2"/>
+      <c r="PZB11" s="2"/>
+      <c r="PZF11" s="2"/>
+      <c r="PZJ11" s="2"/>
+      <c r="PZN11" s="2"/>
+      <c r="PZR11" s="2"/>
+      <c r="PZV11" s="2"/>
+      <c r="PZZ11" s="2"/>
+      <c r="QAD11" s="2"/>
+      <c r="QAH11" s="2"/>
+      <c r="QAL11" s="2"/>
+      <c r="QAP11" s="2"/>
+      <c r="QAT11" s="2"/>
+      <c r="QAX11" s="2"/>
+      <c r="QBB11" s="2"/>
+      <c r="QBF11" s="2"/>
+      <c r="QBJ11" s="2"/>
+      <c r="QBN11" s="2"/>
+      <c r="QBR11" s="2"/>
+      <c r="QBV11" s="2"/>
+      <c r="QBZ11" s="2"/>
+      <c r="QCD11" s="2"/>
+      <c r="QCH11" s="2"/>
+      <c r="QCL11" s="2"/>
+      <c r="QCP11" s="2"/>
+      <c r="QCT11" s="2"/>
+      <c r="QCX11" s="2"/>
+      <c r="QDB11" s="2"/>
+      <c r="QDF11" s="2"/>
+      <c r="QDJ11" s="2"/>
+      <c r="QDN11" s="2"/>
+      <c r="QDR11" s="2"/>
+      <c r="QDV11" s="2"/>
+      <c r="QDZ11" s="2"/>
+      <c r="QED11" s="2"/>
+      <c r="QEH11" s="2"/>
+      <c r="QEL11" s="2"/>
+      <c r="QEP11" s="2"/>
+      <c r="QET11" s="2"/>
+      <c r="QEX11" s="2"/>
+      <c r="QFB11" s="2"/>
+      <c r="QFF11" s="2"/>
+      <c r="QFJ11" s="2"/>
+      <c r="QFN11" s="2"/>
+      <c r="QFR11" s="2"/>
+      <c r="QFV11" s="2"/>
+      <c r="QFZ11" s="2"/>
+      <c r="QGD11" s="2"/>
+      <c r="QGH11" s="2"/>
+      <c r="QGL11" s="2"/>
+      <c r="QGP11" s="2"/>
+      <c r="QGT11" s="2"/>
+      <c r="QGX11" s="2"/>
+      <c r="QHB11" s="2"/>
+      <c r="QHF11" s="2"/>
+      <c r="QHJ11" s="2"/>
+      <c r="QHN11" s="2"/>
+      <c r="QHR11" s="2"/>
+      <c r="QHV11" s="2"/>
+      <c r="QHZ11" s="2"/>
+      <c r="QID11" s="2"/>
+      <c r="QIH11" s="2"/>
+      <c r="QIL11" s="2"/>
+      <c r="QIP11" s="2"/>
+      <c r="QIT11" s="2"/>
+      <c r="QIX11" s="2"/>
+      <c r="QJB11" s="2"/>
+      <c r="QJF11" s="2"/>
+      <c r="QJJ11" s="2"/>
+      <c r="QJN11" s="2"/>
+      <c r="QJR11" s="2"/>
+      <c r="QJV11" s="2"/>
+      <c r="QJZ11" s="2"/>
+      <c r="QKD11" s="2"/>
+      <c r="QKH11" s="2"/>
+      <c r="QKL11" s="2"/>
+      <c r="QKP11" s="2"/>
+      <c r="QKT11" s="2"/>
+      <c r="QKX11" s="2"/>
+      <c r="QLB11" s="2"/>
+      <c r="QLF11" s="2"/>
+      <c r="QLJ11" s="2"/>
+      <c r="QLN11" s="2"/>
+      <c r="QLR11" s="2"/>
+      <c r="QLV11" s="2"/>
+      <c r="QLZ11" s="2"/>
+      <c r="QMD11" s="2"/>
+      <c r="QMH11" s="2"/>
+      <c r="QML11" s="2"/>
+      <c r="QMP11" s="2"/>
+      <c r="QMT11" s="2"/>
+      <c r="QMX11" s="2"/>
+      <c r="QNB11" s="2"/>
+      <c r="QNF11" s="2"/>
+      <c r="QNJ11" s="2"/>
+      <c r="QNN11" s="2"/>
+      <c r="QNR11" s="2"/>
+      <c r="QNV11" s="2"/>
+      <c r="QNZ11" s="2"/>
+      <c r="QOD11" s="2"/>
+      <c r="QOH11" s="2"/>
+      <c r="QOL11" s="2"/>
+      <c r="QOP11" s="2"/>
+      <c r="QOT11" s="2"/>
+      <c r="QOX11" s="2"/>
+      <c r="QPB11" s="2"/>
+      <c r="QPF11" s="2"/>
+      <c r="QPJ11" s="2"/>
+      <c r="QPN11" s="2"/>
+      <c r="QPR11" s="2"/>
+      <c r="QPV11" s="2"/>
+      <c r="QPZ11" s="2"/>
+      <c r="QQD11" s="2"/>
+      <c r="QQH11" s="2"/>
+      <c r="QQL11" s="2"/>
+      <c r="QQP11" s="2"/>
+      <c r="QQT11" s="2"/>
+      <c r="QQX11" s="2"/>
+      <c r="QRB11" s="2"/>
+      <c r="QRF11" s="2"/>
+      <c r="QRJ11" s="2"/>
+      <c r="QRN11" s="2"/>
+      <c r="QRR11" s="2"/>
+      <c r="QRV11" s="2"/>
+      <c r="QRZ11" s="2"/>
+      <c r="QSD11" s="2"/>
+      <c r="QSH11" s="2"/>
+      <c r="QSL11" s="2"/>
+      <c r="QSP11" s="2"/>
+      <c r="QST11" s="2"/>
+      <c r="QSX11" s="2"/>
+      <c r="QTB11" s="2"/>
+      <c r="QTF11" s="2"/>
+      <c r="QTJ11" s="2"/>
+      <c r="QTN11" s="2"/>
+      <c r="QTR11" s="2"/>
+      <c r="QTV11" s="2"/>
+      <c r="QTZ11" s="2"/>
+      <c r="QUD11" s="2"/>
+      <c r="QUH11" s="2"/>
+      <c r="QUL11" s="2"/>
+      <c r="QUP11" s="2"/>
+      <c r="QUT11" s="2"/>
+      <c r="QUX11" s="2"/>
+      <c r="QVB11" s="2"/>
+      <c r="QVF11" s="2"/>
+      <c r="QVJ11" s="2"/>
+      <c r="QVN11" s="2"/>
+      <c r="QVR11" s="2"/>
+      <c r="QVV11" s="2"/>
+      <c r="QVZ11" s="2"/>
+      <c r="QWD11" s="2"/>
+      <c r="QWH11" s="2"/>
+      <c r="QWL11" s="2"/>
+      <c r="QWP11" s="2"/>
+      <c r="QWT11" s="2"/>
+      <c r="QWX11" s="2"/>
+      <c r="QXB11" s="2"/>
+      <c r="QXF11" s="2"/>
+      <c r="QXJ11" s="2"/>
+      <c r="QXN11" s="2"/>
+      <c r="QXR11" s="2"/>
+      <c r="QXV11" s="2"/>
+      <c r="QXZ11" s="2"/>
+      <c r="QYD11" s="2"/>
+      <c r="QYH11" s="2"/>
+      <c r="QYL11" s="2"/>
+      <c r="QYP11" s="2"/>
+      <c r="QYT11" s="2"/>
+      <c r="QYX11" s="2"/>
+      <c r="QZB11" s="2"/>
+      <c r="QZF11" s="2"/>
+      <c r="QZJ11" s="2"/>
+      <c r="QZN11" s="2"/>
+      <c r="QZR11" s="2"/>
+      <c r="QZV11" s="2"/>
+      <c r="QZZ11" s="2"/>
+      <c r="RAD11" s="2"/>
+      <c r="RAH11" s="2"/>
+      <c r="RAL11" s="2"/>
+      <c r="RAP11" s="2"/>
+      <c r="RAT11" s="2"/>
+      <c r="RAX11" s="2"/>
+      <c r="RBB11" s="2"/>
+      <c r="RBF11" s="2"/>
+      <c r="RBJ11" s="2"/>
+      <c r="RBN11" s="2"/>
+      <c r="RBR11" s="2"/>
+      <c r="RBV11" s="2"/>
+      <c r="RBZ11" s="2"/>
+      <c r="RCD11" s="2"/>
+      <c r="RCH11" s="2"/>
+      <c r="RCL11" s="2"/>
+      <c r="RCP11" s="2"/>
+      <c r="RCT11" s="2"/>
+      <c r="RCX11" s="2"/>
+      <c r="RDB11" s="2"/>
+      <c r="RDF11" s="2"/>
+      <c r="RDJ11" s="2"/>
+      <c r="RDN11" s="2"/>
+      <c r="RDR11" s="2"/>
+      <c r="RDV11" s="2"/>
+      <c r="RDZ11" s="2"/>
+      <c r="RED11" s="2"/>
+      <c r="REH11" s="2"/>
+      <c r="REL11" s="2"/>
+      <c r="REP11" s="2"/>
+      <c r="RET11" s="2"/>
+      <c r="REX11" s="2"/>
+      <c r="RFB11" s="2"/>
+      <c r="RFF11" s="2"/>
+      <c r="RFJ11" s="2"/>
+      <c r="RFN11" s="2"/>
+      <c r="RFR11" s="2"/>
+      <c r="RFV11" s="2"/>
+      <c r="RFZ11" s="2"/>
+      <c r="RGD11" s="2"/>
+      <c r="RGH11" s="2"/>
+      <c r="RGL11" s="2"/>
+      <c r="RGP11" s="2"/>
+      <c r="RGT11" s="2"/>
+      <c r="RGX11" s="2"/>
+      <c r="RHB11" s="2"/>
+      <c r="RHF11" s="2"/>
+      <c r="RHJ11" s="2"/>
+      <c r="RHN11" s="2"/>
+      <c r="RHR11" s="2"/>
+      <c r="RHV11" s="2"/>
+      <c r="RHZ11" s="2"/>
+      <c r="RID11" s="2"/>
+      <c r="RIH11" s="2"/>
+      <c r="RIL11" s="2"/>
+      <c r="RIP11" s="2"/>
+      <c r="RIT11" s="2"/>
+      <c r="RIX11" s="2"/>
+      <c r="RJB11" s="2"/>
+      <c r="RJF11" s="2"/>
+      <c r="RJJ11" s="2"/>
+      <c r="RJN11" s="2"/>
+      <c r="RJR11" s="2"/>
+      <c r="RJV11" s="2"/>
+      <c r="RJZ11" s="2"/>
+      <c r="RKD11" s="2"/>
+      <c r="RKH11" s="2"/>
+      <c r="RKL11" s="2"/>
+      <c r="RKP11" s="2"/>
+      <c r="RKT11" s="2"/>
+      <c r="RKX11" s="2"/>
+      <c r="RLB11" s="2"/>
+      <c r="RLF11" s="2"/>
+      <c r="RLJ11" s="2"/>
+      <c r="RLN11" s="2"/>
+      <c r="RLR11" s="2"/>
+      <c r="RLV11" s="2"/>
+      <c r="RLZ11" s="2"/>
+      <c r="RMD11" s="2"/>
+      <c r="RMH11" s="2"/>
+      <c r="RML11" s="2"/>
+      <c r="RMP11" s="2"/>
+      <c r="RMT11" s="2"/>
+      <c r="RMX11" s="2"/>
+      <c r="RNB11" s="2"/>
+      <c r="RNF11" s="2"/>
+      <c r="RNJ11" s="2"/>
+      <c r="RNN11" s="2"/>
+      <c r="RNR11" s="2"/>
+      <c r="RNV11" s="2"/>
+      <c r="RNZ11" s="2"/>
+      <c r="ROD11" s="2"/>
+      <c r="ROH11" s="2"/>
+      <c r="ROL11" s="2"/>
+      <c r="ROP11" s="2"/>
+      <c r="ROT11" s="2"/>
+      <c r="ROX11" s="2"/>
+      <c r="RPB11" s="2"/>
+      <c r="RPF11" s="2"/>
+      <c r="RPJ11" s="2"/>
+      <c r="RPN11" s="2"/>
+      <c r="RPR11" s="2"/>
+      <c r="RPV11" s="2"/>
+      <c r="RPZ11" s="2"/>
+      <c r="RQD11" s="2"/>
+      <c r="RQH11" s="2"/>
+      <c r="RQL11" s="2"/>
+      <c r="RQP11" s="2"/>
+      <c r="RQT11" s="2"/>
+      <c r="RQX11" s="2"/>
+      <c r="RRB11" s="2"/>
+      <c r="RRF11" s="2"/>
+      <c r="RRJ11" s="2"/>
+      <c r="RRN11" s="2"/>
+      <c r="RRR11" s="2"/>
+      <c r="RRV11" s="2"/>
+      <c r="RRZ11" s="2"/>
+      <c r="RSD11" s="2"/>
+      <c r="RSH11" s="2"/>
+      <c r="RSL11" s="2"/>
+      <c r="RSP11" s="2"/>
+      <c r="RST11" s="2"/>
+      <c r="RSX11" s="2"/>
+      <c r="RTB11" s="2"/>
+      <c r="RTF11" s="2"/>
+      <c r="RTJ11" s="2"/>
+      <c r="RTN11" s="2"/>
+      <c r="RTR11" s="2"/>
+      <c r="RTV11" s="2"/>
+      <c r="RTZ11" s="2"/>
+      <c r="RUD11" s="2"/>
+      <c r="RUH11" s="2"/>
+      <c r="RUL11" s="2"/>
+      <c r="RUP11" s="2"/>
+      <c r="RUT11" s="2"/>
+      <c r="RUX11" s="2"/>
+      <c r="RVB11" s="2"/>
+      <c r="RVF11" s="2"/>
+      <c r="RVJ11" s="2"/>
+      <c r="RVN11" s="2"/>
+      <c r="RVR11" s="2"/>
+      <c r="RVV11" s="2"/>
+      <c r="RVZ11" s="2"/>
+      <c r="RWD11" s="2"/>
+      <c r="RWH11" s="2"/>
+      <c r="RWL11" s="2"/>
+      <c r="RWP11" s="2"/>
+      <c r="RWT11" s="2"/>
+      <c r="RWX11" s="2"/>
+      <c r="RXB11" s="2"/>
+      <c r="RXF11" s="2"/>
+      <c r="RXJ11" s="2"/>
+      <c r="RXN11" s="2"/>
+      <c r="RXR11" s="2"/>
+      <c r="RXV11" s="2"/>
+      <c r="RXZ11" s="2"/>
+      <c r="RYD11" s="2"/>
+      <c r="RYH11" s="2"/>
+      <c r="RYL11" s="2"/>
+      <c r="RYP11" s="2"/>
+      <c r="RYT11" s="2"/>
+      <c r="RYX11" s="2"/>
+      <c r="RZB11" s="2"/>
+      <c r="RZF11" s="2"/>
+      <c r="RZJ11" s="2"/>
+      <c r="RZN11" s="2"/>
+      <c r="RZR11" s="2"/>
+      <c r="RZV11" s="2"/>
+      <c r="RZZ11" s="2"/>
+      <c r="SAD11" s="2"/>
+      <c r="SAH11" s="2"/>
+      <c r="SAL11" s="2"/>
+      <c r="SAP11" s="2"/>
+      <c r="SAT11" s="2"/>
+      <c r="SAX11" s="2"/>
+      <c r="SBB11" s="2"/>
+      <c r="SBF11" s="2"/>
+      <c r="SBJ11" s="2"/>
+      <c r="SBN11" s="2"/>
+      <c r="SBR11" s="2"/>
+      <c r="SBV11" s="2"/>
+      <c r="SBZ11" s="2"/>
+      <c r="SCD11" s="2"/>
+      <c r="SCH11" s="2"/>
+      <c r="SCL11" s="2"/>
+      <c r="SCP11" s="2"/>
+      <c r="SCT11" s="2"/>
+      <c r="SCX11" s="2"/>
+      <c r="SDB11" s="2"/>
+      <c r="SDF11" s="2"/>
+      <c r="SDJ11" s="2"/>
+      <c r="SDN11" s="2"/>
+      <c r="SDR11" s="2"/>
+      <c r="SDV11" s="2"/>
+      <c r="SDZ11" s="2"/>
+      <c r="SED11" s="2"/>
+      <c r="SEH11" s="2"/>
+      <c r="SEL11" s="2"/>
+      <c r="SEP11" s="2"/>
+      <c r="SET11" s="2"/>
+      <c r="SEX11" s="2"/>
+      <c r="SFB11" s="2"/>
+      <c r="SFF11" s="2"/>
+      <c r="SFJ11" s="2"/>
+      <c r="SFN11" s="2"/>
+      <c r="SFR11" s="2"/>
+      <c r="SFV11" s="2"/>
+      <c r="SFZ11" s="2"/>
+      <c r="SGD11" s="2"/>
+      <c r="SGH11" s="2"/>
+      <c r="SGL11" s="2"/>
+      <c r="SGP11" s="2"/>
+      <c r="SGT11" s="2"/>
+      <c r="SGX11" s="2"/>
+      <c r="SHB11" s="2"/>
+      <c r="SHF11" s="2"/>
+      <c r="SHJ11" s="2"/>
+      <c r="SHN11" s="2"/>
+      <c r="SHR11" s="2"/>
+      <c r="SHV11" s="2"/>
+      <c r="SHZ11" s="2"/>
+      <c r="SID11" s="2"/>
+      <c r="SIH11" s="2"/>
+      <c r="SIL11" s="2"/>
+      <c r="SIP11" s="2"/>
+      <c r="SIT11" s="2"/>
+      <c r="SIX11" s="2"/>
+      <c r="SJB11" s="2"/>
+      <c r="SJF11" s="2"/>
+      <c r="SJJ11" s="2"/>
+      <c r="SJN11" s="2"/>
+      <c r="SJR11" s="2"/>
+      <c r="SJV11" s="2"/>
+      <c r="SJZ11" s="2"/>
+      <c r="SKD11" s="2"/>
+      <c r="SKH11" s="2"/>
+      <c r="SKL11" s="2"/>
+      <c r="SKP11" s="2"/>
+      <c r="SKT11" s="2"/>
+      <c r="SKX11" s="2"/>
+      <c r="SLB11" s="2"/>
+      <c r="SLF11" s="2"/>
+      <c r="SLJ11" s="2"/>
+      <c r="SLN11" s="2"/>
+      <c r="SLR11" s="2"/>
+      <c r="SLV11" s="2"/>
+      <c r="SLZ11" s="2"/>
+      <c r="SMD11" s="2"/>
+      <c r="SMH11" s="2"/>
+      <c r="SML11" s="2"/>
+      <c r="SMP11" s="2"/>
+      <c r="SMT11" s="2"/>
+      <c r="SMX11" s="2"/>
+      <c r="SNB11" s="2"/>
+      <c r="SNF11" s="2"/>
+      <c r="SNJ11" s="2"/>
+      <c r="SNN11" s="2"/>
+      <c r="SNR11" s="2"/>
+      <c r="SNV11" s="2"/>
+      <c r="SNZ11" s="2"/>
+      <c r="SOD11" s="2"/>
+      <c r="SOH11" s="2"/>
+      <c r="SOL11" s="2"/>
+      <c r="SOP11" s="2"/>
+      <c r="SOT11" s="2"/>
+      <c r="SOX11" s="2"/>
+      <c r="SPB11" s="2"/>
+      <c r="SPF11" s="2"/>
+      <c r="SPJ11" s="2"/>
+      <c r="SPN11" s="2"/>
+      <c r="SPR11" s="2"/>
+      <c r="SPV11" s="2"/>
+      <c r="SPZ11" s="2"/>
+      <c r="SQD11" s="2"/>
+      <c r="SQH11" s="2"/>
+      <c r="SQL11" s="2"/>
+      <c r="SQP11" s="2"/>
+      <c r="SQT11" s="2"/>
+      <c r="SQX11" s="2"/>
+      <c r="SRB11" s="2"/>
+      <c r="SRF11" s="2"/>
+      <c r="SRJ11" s="2"/>
+      <c r="SRN11" s="2"/>
+      <c r="SRR11" s="2"/>
+      <c r="SRV11" s="2"/>
+      <c r="SRZ11" s="2"/>
+      <c r="SSD11" s="2"/>
+      <c r="SSH11" s="2"/>
+      <c r="SSL11" s="2"/>
+      <c r="SSP11" s="2"/>
+      <c r="SST11" s="2"/>
+      <c r="SSX11" s="2"/>
+      <c r="STB11" s="2"/>
+      <c r="STF11" s="2"/>
+      <c r="STJ11" s="2"/>
+      <c r="STN11" s="2"/>
+      <c r="STR11" s="2"/>
+      <c r="STV11" s="2"/>
+      <c r="STZ11" s="2"/>
+      <c r="SUD11" s="2"/>
+      <c r="SUH11" s="2"/>
+      <c r="SUL11" s="2"/>
+      <c r="SUP11" s="2"/>
+      <c r="SUT11" s="2"/>
+      <c r="SUX11" s="2"/>
+      <c r="SVB11" s="2"/>
+      <c r="SVF11" s="2"/>
+      <c r="SVJ11" s="2"/>
+      <c r="SVN11" s="2"/>
+      <c r="SVR11" s="2"/>
+      <c r="SVV11" s="2"/>
+      <c r="SVZ11" s="2"/>
+      <c r="SWD11" s="2"/>
+      <c r="SWH11" s="2"/>
+      <c r="SWL11" s="2"/>
+      <c r="SWP11" s="2"/>
+      <c r="SWT11" s="2"/>
+      <c r="SWX11" s="2"/>
+      <c r="SXB11" s="2"/>
+      <c r="SXF11" s="2"/>
+      <c r="SXJ11" s="2"/>
+      <c r="SXN11" s="2"/>
+      <c r="SXR11" s="2"/>
+      <c r="SXV11" s="2"/>
+      <c r="SXZ11" s="2"/>
+      <c r="SYD11" s="2"/>
+      <c r="SYH11" s="2"/>
+      <c r="SYL11" s="2"/>
+      <c r="SYP11" s="2"/>
+      <c r="SYT11" s="2"/>
+      <c r="SYX11" s="2"/>
+      <c r="SZB11" s="2"/>
+      <c r="SZF11" s="2"/>
+      <c r="SZJ11" s="2"/>
+      <c r="SZN11" s="2"/>
+      <c r="SZR11" s="2"/>
+      <c r="SZV11" s="2"/>
+      <c r="SZZ11" s="2"/>
+      <c r="TAD11" s="2"/>
+      <c r="TAH11" s="2"/>
+      <c r="TAL11" s="2"/>
+      <c r="TAP11" s="2"/>
+      <c r="TAT11" s="2"/>
+      <c r="TAX11" s="2"/>
+      <c r="TBB11" s="2"/>
+      <c r="TBF11" s="2"/>
+      <c r="TBJ11" s="2"/>
+      <c r="TBN11" s="2"/>
+      <c r="TBR11" s="2"/>
+      <c r="TBV11" s="2"/>
+      <c r="TBZ11" s="2"/>
+      <c r="TCD11" s="2"/>
+      <c r="TCH11" s="2"/>
+      <c r="TCL11" s="2"/>
+      <c r="TCP11" s="2"/>
+      <c r="TCT11" s="2"/>
+      <c r="TCX11" s="2"/>
+      <c r="TDB11" s="2"/>
+      <c r="TDF11" s="2"/>
+      <c r="TDJ11" s="2"/>
+      <c r="TDN11" s="2"/>
+      <c r="TDR11" s="2"/>
+      <c r="TDV11" s="2"/>
+      <c r="TDZ11" s="2"/>
+      <c r="TED11" s="2"/>
+      <c r="TEH11" s="2"/>
+      <c r="TEL11" s="2"/>
+      <c r="TEP11" s="2"/>
+      <c r="TET11" s="2"/>
+      <c r="TEX11" s="2"/>
+      <c r="TFB11" s="2"/>
+      <c r="TFF11" s="2"/>
+      <c r="TFJ11" s="2"/>
+      <c r="TFN11" s="2"/>
+      <c r="TFR11" s="2"/>
+      <c r="TFV11" s="2"/>
+      <c r="TFZ11" s="2"/>
+      <c r="TGD11" s="2"/>
+      <c r="TGH11" s="2"/>
+      <c r="TGL11" s="2"/>
+      <c r="TGP11" s="2"/>
+      <c r="TGT11" s="2"/>
+      <c r="TGX11" s="2"/>
+      <c r="THB11" s="2"/>
+      <c r="THF11" s="2"/>
+      <c r="THJ11" s="2"/>
+      <c r="THN11" s="2"/>
+      <c r="THR11" s="2"/>
+      <c r="THV11" s="2"/>
+      <c r="THZ11" s="2"/>
+      <c r="TID11" s="2"/>
+      <c r="TIH11" s="2"/>
+      <c r="TIL11" s="2"/>
+      <c r="TIP11" s="2"/>
+      <c r="TIT11" s="2"/>
+      <c r="TIX11" s="2"/>
+      <c r="TJB11" s="2"/>
+      <c r="TJF11" s="2"/>
+      <c r="TJJ11" s="2"/>
+      <c r="TJN11" s="2"/>
+      <c r="TJR11" s="2"/>
+      <c r="TJV11" s="2"/>
+      <c r="TJZ11" s="2"/>
+      <c r="TKD11" s="2"/>
+      <c r="TKH11" s="2"/>
+      <c r="TKL11" s="2"/>
+      <c r="TKP11" s="2"/>
+      <c r="TKT11" s="2"/>
+      <c r="TKX11" s="2"/>
+      <c r="TLB11" s="2"/>
+      <c r="TLF11" s="2"/>
+      <c r="TLJ11" s="2"/>
+      <c r="TLN11" s="2"/>
+      <c r="TLR11" s="2"/>
+      <c r="TLV11" s="2"/>
+      <c r="TLZ11" s="2"/>
+      <c r="TMD11" s="2"/>
+      <c r="TMH11" s="2"/>
+      <c r="TML11" s="2"/>
+      <c r="TMP11" s="2"/>
+      <c r="TMT11" s="2"/>
+      <c r="TMX11" s="2"/>
+      <c r="TNB11" s="2"/>
+      <c r="TNF11" s="2"/>
+      <c r="TNJ11" s="2"/>
+      <c r="TNN11" s="2"/>
+      <c r="TNR11" s="2"/>
+      <c r="TNV11" s="2"/>
+      <c r="TNZ11" s="2"/>
+      <c r="TOD11" s="2"/>
+      <c r="TOH11" s="2"/>
+      <c r="TOL11" s="2"/>
+      <c r="TOP11" s="2"/>
+      <c r="TOT11" s="2"/>
+      <c r="TOX11" s="2"/>
+      <c r="TPB11" s="2"/>
+      <c r="TPF11" s="2"/>
+      <c r="TPJ11" s="2"/>
+      <c r="TPN11" s="2"/>
+      <c r="TPR11" s="2"/>
+      <c r="TPV11" s="2"/>
+      <c r="TPZ11" s="2"/>
+      <c r="TQD11" s="2"/>
+      <c r="TQH11" s="2"/>
+      <c r="TQL11" s="2"/>
+      <c r="TQP11" s="2"/>
+      <c r="TQT11" s="2"/>
+      <c r="TQX11" s="2"/>
+      <c r="TRB11" s="2"/>
+      <c r="TRF11" s="2"/>
+      <c r="TRJ11" s="2"/>
+      <c r="TRN11" s="2"/>
+      <c r="TRR11" s="2"/>
+      <c r="TRV11" s="2"/>
+      <c r="TRZ11" s="2"/>
+      <c r="TSD11" s="2"/>
+      <c r="TSH11" s="2"/>
+      <c r="TSL11" s="2"/>
+      <c r="TSP11" s="2"/>
+      <c r="TST11" s="2"/>
+      <c r="TSX11" s="2"/>
+      <c r="TTB11" s="2"/>
+      <c r="TTF11" s="2"/>
+      <c r="TTJ11" s="2"/>
+      <c r="TTN11" s="2"/>
+      <c r="TTR11" s="2"/>
+      <c r="TTV11" s="2"/>
+      <c r="TTZ11" s="2"/>
+      <c r="TUD11" s="2"/>
+      <c r="TUH11" s="2"/>
+      <c r="TUL11" s="2"/>
+      <c r="TUP11" s="2"/>
+      <c r="TUT11" s="2"/>
+      <c r="TUX11" s="2"/>
+      <c r="TVB11" s="2"/>
+      <c r="TVF11" s="2"/>
+      <c r="TVJ11" s="2"/>
+      <c r="TVN11" s="2"/>
+      <c r="TVR11" s="2"/>
+      <c r="TVV11" s="2"/>
+      <c r="TVZ11" s="2"/>
+      <c r="TWD11" s="2"/>
+      <c r="TWH11" s="2"/>
+      <c r="TWL11" s="2"/>
+      <c r="TWP11" s="2"/>
+      <c r="TWT11" s="2"/>
+      <c r="TWX11" s="2"/>
+      <c r="TXB11" s="2"/>
+      <c r="TXF11" s="2"/>
+      <c r="TXJ11" s="2"/>
+      <c r="TXN11" s="2"/>
+      <c r="TXR11" s="2"/>
+      <c r="TXV11" s="2"/>
+      <c r="TXZ11" s="2"/>
+      <c r="TYD11" s="2"/>
+      <c r="TYH11" s="2"/>
+      <c r="TYL11" s="2"/>
+      <c r="TYP11" s="2"/>
+      <c r="TYT11" s="2"/>
+      <c r="TYX11" s="2"/>
+      <c r="TZB11" s="2"/>
+      <c r="TZF11" s="2"/>
+      <c r="TZJ11" s="2"/>
+      <c r="TZN11" s="2"/>
+      <c r="TZR11" s="2"/>
+      <c r="TZV11" s="2"/>
+      <c r="TZZ11" s="2"/>
+      <c r="UAD11" s="2"/>
+      <c r="UAH11" s="2"/>
+      <c r="UAL11" s="2"/>
+      <c r="UAP11" s="2"/>
+      <c r="UAT11" s="2"/>
+      <c r="UAX11" s="2"/>
+      <c r="UBB11" s="2"/>
+      <c r="UBF11" s="2"/>
+      <c r="UBJ11" s="2"/>
+      <c r="UBN11" s="2"/>
+      <c r="UBR11" s="2"/>
+      <c r="UBV11" s="2"/>
+      <c r="UBZ11" s="2"/>
+      <c r="UCD11" s="2"/>
+      <c r="UCH11" s="2"/>
+      <c r="UCL11" s="2"/>
+      <c r="UCP11" s="2"/>
+      <c r="UCT11" s="2"/>
+      <c r="UCX11" s="2"/>
+      <c r="UDB11" s="2"/>
+      <c r="UDF11" s="2"/>
+      <c r="UDJ11" s="2"/>
+      <c r="UDN11" s="2"/>
+      <c r="UDR11" s="2"/>
+      <c r="UDV11" s="2"/>
+      <c r="UDZ11" s="2"/>
+      <c r="UED11" s="2"/>
+      <c r="UEH11" s="2"/>
+      <c r="UEL11" s="2"/>
+      <c r="UEP11" s="2"/>
+      <c r="UET11" s="2"/>
+      <c r="UEX11" s="2"/>
+      <c r="UFB11" s="2"/>
+      <c r="UFF11" s="2"/>
+      <c r="UFJ11" s="2"/>
+      <c r="UFN11" s="2"/>
+      <c r="UFR11" s="2"/>
+      <c r="UFV11" s="2"/>
+      <c r="UFZ11" s="2"/>
+      <c r="UGD11" s="2"/>
+      <c r="UGH11" s="2"/>
+      <c r="UGL11" s="2"/>
+      <c r="UGP11" s="2"/>
+      <c r="UGT11" s="2"/>
+      <c r="UGX11" s="2"/>
+      <c r="UHB11" s="2"/>
+      <c r="UHF11" s="2"/>
+      <c r="UHJ11" s="2"/>
+      <c r="UHN11" s="2"/>
+      <c r="UHR11" s="2"/>
+      <c r="UHV11" s="2"/>
+      <c r="UHZ11" s="2"/>
+      <c r="UID11" s="2"/>
+      <c r="UIH11" s="2"/>
+      <c r="UIL11" s="2"/>
+      <c r="UIP11" s="2"/>
+      <c r="UIT11" s="2"/>
+      <c r="UIX11" s="2"/>
+      <c r="UJB11" s="2"/>
+      <c r="UJF11" s="2"/>
+      <c r="UJJ11" s="2"/>
+      <c r="UJN11" s="2"/>
+      <c r="UJR11" s="2"/>
+      <c r="UJV11" s="2"/>
+      <c r="UJZ11" s="2"/>
+      <c r="UKD11" s="2"/>
+      <c r="UKH11" s="2"/>
+      <c r="UKL11" s="2"/>
+      <c r="UKP11" s="2"/>
+      <c r="UKT11" s="2"/>
+      <c r="UKX11" s="2"/>
+      <c r="ULB11" s="2"/>
+      <c r="ULF11" s="2"/>
+      <c r="ULJ11" s="2"/>
+      <c r="ULN11" s="2"/>
+      <c r="ULR11" s="2"/>
+      <c r="ULV11" s="2"/>
+      <c r="ULZ11" s="2"/>
+      <c r="UMD11" s="2"/>
+      <c r="UMH11" s="2"/>
+      <c r="UML11" s="2"/>
+      <c r="UMP11" s="2"/>
+      <c r="UMT11" s="2"/>
+      <c r="UMX11" s="2"/>
+      <c r="UNB11" s="2"/>
+      <c r="UNF11" s="2"/>
+      <c r="UNJ11" s="2"/>
+      <c r="UNN11" s="2"/>
+      <c r="UNR11" s="2"/>
+      <c r="UNV11" s="2"/>
+      <c r="UNZ11" s="2"/>
+      <c r="UOD11" s="2"/>
+      <c r="UOH11" s="2"/>
+      <c r="UOL11" s="2"/>
+      <c r="UOP11" s="2"/>
+      <c r="UOT11" s="2"/>
+      <c r="UOX11" s="2"/>
+      <c r="UPB11" s="2"/>
+      <c r="UPF11" s="2"/>
+      <c r="UPJ11" s="2"/>
+      <c r="UPN11" s="2"/>
+      <c r="UPR11" s="2"/>
+      <c r="UPV11" s="2"/>
+      <c r="UPZ11" s="2"/>
+      <c r="UQD11" s="2"/>
+      <c r="UQH11" s="2"/>
+      <c r="UQL11" s="2"/>
+      <c r="UQP11" s="2"/>
+      <c r="UQT11" s="2"/>
+      <c r="UQX11" s="2"/>
+      <c r="URB11" s="2"/>
+      <c r="URF11" s="2"/>
+      <c r="URJ11" s="2"/>
+      <c r="URN11" s="2"/>
+      <c r="URR11" s="2"/>
+      <c r="URV11" s="2"/>
+      <c r="URZ11" s="2"/>
+      <c r="USD11" s="2"/>
+      <c r="USH11" s="2"/>
+      <c r="USL11" s="2"/>
+      <c r="USP11" s="2"/>
+      <c r="UST11" s="2"/>
+      <c r="USX11" s="2"/>
+      <c r="UTB11" s="2"/>
+      <c r="UTF11" s="2"/>
+      <c r="UTJ11" s="2"/>
+      <c r="UTN11" s="2"/>
+      <c r="UTR11" s="2"/>
+      <c r="UTV11" s="2"/>
+      <c r="UTZ11" s="2"/>
+      <c r="UUD11" s="2"/>
+      <c r="UUH11" s="2"/>
+      <c r="UUL11" s="2"/>
+      <c r="UUP11" s="2"/>
+      <c r="UUT11" s="2"/>
+      <c r="UUX11" s="2"/>
+      <c r="UVB11" s="2"/>
+      <c r="UVF11" s="2"/>
+      <c r="UVJ11" s="2"/>
+      <c r="UVN11" s="2"/>
+      <c r="UVR11" s="2"/>
+      <c r="UVV11" s="2"/>
+      <c r="UVZ11" s="2"/>
+      <c r="UWD11" s="2"/>
+      <c r="UWH11" s="2"/>
+      <c r="UWL11" s="2"/>
+      <c r="UWP11" s="2"/>
+      <c r="UWT11" s="2"/>
+      <c r="UWX11" s="2"/>
+      <c r="UXB11" s="2"/>
+      <c r="UXF11" s="2"/>
+      <c r="UXJ11" s="2"/>
+      <c r="UXN11" s="2"/>
+      <c r="UXR11" s="2"/>
+      <c r="UXV11" s="2"/>
+      <c r="UXZ11" s="2"/>
+      <c r="UYD11" s="2"/>
+      <c r="UYH11" s="2"/>
+      <c r="UYL11" s="2"/>
+      <c r="UYP11" s="2"/>
+      <c r="UYT11" s="2"/>
+      <c r="UYX11" s="2"/>
+      <c r="UZB11" s="2"/>
+      <c r="UZF11" s="2"/>
+      <c r="UZJ11" s="2"/>
+      <c r="UZN11" s="2"/>
+      <c r="UZR11" s="2"/>
+      <c r="UZV11" s="2"/>
+      <c r="UZZ11" s="2"/>
+      <c r="VAD11" s="2"/>
+      <c r="VAH11" s="2"/>
+      <c r="VAL11" s="2"/>
+      <c r="VAP11" s="2"/>
+      <c r="VAT11" s="2"/>
+      <c r="VAX11" s="2"/>
+      <c r="VBB11" s="2"/>
+      <c r="VBF11" s="2"/>
+      <c r="VBJ11" s="2"/>
+      <c r="VBN11" s="2"/>
+      <c r="VBR11" s="2"/>
+      <c r="VBV11" s="2"/>
+      <c r="VBZ11" s="2"/>
+      <c r="VCD11" s="2"/>
+      <c r="VCH11" s="2"/>
+      <c r="VCL11" s="2"/>
+      <c r="VCP11" s="2"/>
+      <c r="VCT11" s="2"/>
+      <c r="VCX11" s="2"/>
+      <c r="VDB11" s="2"/>
+      <c r="VDF11" s="2"/>
+      <c r="VDJ11" s="2"/>
+      <c r="VDN11" s="2"/>
+      <c r="VDR11" s="2"/>
+      <c r="VDV11" s="2"/>
+      <c r="VDZ11" s="2"/>
+      <c r="VED11" s="2"/>
+      <c r="VEH11" s="2"/>
+      <c r="VEL11" s="2"/>
+      <c r="VEP11" s="2"/>
+      <c r="VET11" s="2"/>
+      <c r="VEX11" s="2"/>
+      <c r="VFB11" s="2"/>
+      <c r="VFF11" s="2"/>
+      <c r="VFJ11" s="2"/>
+      <c r="VFN11" s="2"/>
+      <c r="VFR11" s="2"/>
+      <c r="VFV11" s="2"/>
+      <c r="VFZ11" s="2"/>
+      <c r="VGD11" s="2"/>
+      <c r="VGH11" s="2"/>
+      <c r="VGL11" s="2"/>
+      <c r="VGP11" s="2"/>
+      <c r="VGT11" s="2"/>
+      <c r="VGX11" s="2"/>
+      <c r="VHB11" s="2"/>
+      <c r="VHF11" s="2"/>
+      <c r="VHJ11" s="2"/>
+      <c r="VHN11" s="2"/>
+      <c r="VHR11" s="2"/>
+      <c r="VHV11" s="2"/>
+      <c r="VHZ11" s="2"/>
+      <c r="VID11" s="2"/>
+      <c r="VIH11" s="2"/>
+      <c r="VIL11" s="2"/>
+      <c r="VIP11" s="2"/>
+      <c r="VIT11" s="2"/>
+      <c r="VIX11" s="2"/>
+      <c r="VJB11" s="2"/>
+      <c r="VJF11" s="2"/>
+      <c r="VJJ11" s="2"/>
+      <c r="VJN11" s="2"/>
+      <c r="VJR11" s="2"/>
+      <c r="VJV11" s="2"/>
+      <c r="VJZ11" s="2"/>
+      <c r="VKD11" s="2"/>
+      <c r="VKH11" s="2"/>
+      <c r="VKL11" s="2"/>
+      <c r="VKP11" s="2"/>
+      <c r="VKT11" s="2"/>
+      <c r="VKX11" s="2"/>
+      <c r="VLB11" s="2"/>
+      <c r="VLF11" s="2"/>
+      <c r="VLJ11" s="2"/>
+      <c r="VLN11" s="2"/>
+      <c r="VLR11" s="2"/>
+      <c r="VLV11" s="2"/>
+      <c r="VLZ11" s="2"/>
+      <c r="VMD11" s="2"/>
+      <c r="VMH11" s="2"/>
+      <c r="VML11" s="2"/>
+      <c r="VMP11" s="2"/>
+      <c r="VMT11" s="2"/>
+      <c r="VMX11" s="2"/>
+      <c r="VNB11" s="2"/>
+      <c r="VNF11" s="2"/>
+      <c r="VNJ11" s="2"/>
+      <c r="VNN11" s="2"/>
+      <c r="VNR11" s="2"/>
+      <c r="VNV11" s="2"/>
+      <c r="VNZ11" s="2"/>
+      <c r="VOD11" s="2"/>
+      <c r="VOH11" s="2"/>
+      <c r="VOL11" s="2"/>
+      <c r="VOP11" s="2"/>
+      <c r="VOT11" s="2"/>
+      <c r="VOX11" s="2"/>
+      <c r="VPB11" s="2"/>
+      <c r="VPF11" s="2"/>
+      <c r="VPJ11" s="2"/>
+      <c r="VPN11" s="2"/>
+      <c r="VPR11" s="2"/>
+      <c r="VPV11" s="2"/>
+      <c r="VPZ11" s="2"/>
+      <c r="VQD11" s="2"/>
+      <c r="VQH11" s="2"/>
+      <c r="VQL11" s="2"/>
+      <c r="VQP11" s="2"/>
+      <c r="VQT11" s="2"/>
+      <c r="VQX11" s="2"/>
+      <c r="VRB11" s="2"/>
+      <c r="VRF11" s="2"/>
+      <c r="VRJ11" s="2"/>
+      <c r="VRN11" s="2"/>
+      <c r="VRR11" s="2"/>
+      <c r="VRV11" s="2"/>
+      <c r="VRZ11" s="2"/>
+      <c r="VSD11" s="2"/>
+      <c r="VSH11" s="2"/>
+      <c r="VSL11" s="2"/>
+      <c r="VSP11" s="2"/>
+      <c r="VST11" s="2"/>
+      <c r="VSX11" s="2"/>
+      <c r="VTB11" s="2"/>
+      <c r="VTF11" s="2"/>
+      <c r="VTJ11" s="2"/>
+      <c r="VTN11" s="2"/>
+      <c r="VTR11" s="2"/>
+      <c r="VTV11" s="2"/>
+      <c r="VTZ11" s="2"/>
+      <c r="VUD11" s="2"/>
+      <c r="VUH11" s="2"/>
+      <c r="VUL11" s="2"/>
+      <c r="VUP11" s="2"/>
+      <c r="VUT11" s="2"/>
+      <c r="VUX11" s="2"/>
+      <c r="VVB11" s="2"/>
+      <c r="VVF11" s="2"/>
+      <c r="VVJ11" s="2"/>
+      <c r="VVN11" s="2"/>
+      <c r="VVR11" s="2"/>
+      <c r="VVV11" s="2"/>
+      <c r="VVZ11" s="2"/>
+      <c r="VWD11" s="2"/>
+      <c r="VWH11" s="2"/>
+      <c r="VWL11" s="2"/>
+      <c r="VWP11" s="2"/>
+      <c r="VWT11" s="2"/>
+      <c r="VWX11" s="2"/>
+      <c r="VXB11" s="2"/>
+      <c r="VXF11" s="2"/>
+      <c r="VXJ11" s="2"/>
+      <c r="VXN11" s="2"/>
+      <c r="VXR11" s="2"/>
+      <c r="VXV11" s="2"/>
+      <c r="VXZ11" s="2"/>
+      <c r="VYD11" s="2"/>
+      <c r="VYH11" s="2"/>
+      <c r="VYL11" s="2"/>
+      <c r="VYP11" s="2"/>
+      <c r="VYT11" s="2"/>
+      <c r="VYX11" s="2"/>
+      <c r="VZB11" s="2"/>
+      <c r="VZF11" s="2"/>
+      <c r="VZJ11" s="2"/>
+      <c r="VZN11" s="2"/>
+      <c r="VZR11" s="2"/>
+      <c r="VZV11" s="2"/>
+      <c r="VZZ11" s="2"/>
+      <c r="WAD11" s="2"/>
+      <c r="WAH11" s="2"/>
+      <c r="WAL11" s="2"/>
+      <c r="WAP11" s="2"/>
+      <c r="WAT11" s="2"/>
+      <c r="WAX11" s="2"/>
+      <c r="WBB11" s="2"/>
+      <c r="WBF11" s="2"/>
+      <c r="WBJ11" s="2"/>
+      <c r="WBN11" s="2"/>
+      <c r="WBR11" s="2"/>
+      <c r="WBV11" s="2"/>
+      <c r="WBZ11" s="2"/>
+      <c r="WCD11" s="2"/>
+      <c r="WCH11" s="2"/>
+      <c r="WCL11" s="2"/>
+      <c r="WCP11" s="2"/>
+      <c r="WCT11" s="2"/>
+      <c r="WCX11" s="2"/>
+      <c r="WDB11" s="2"/>
+      <c r="WDF11" s="2"/>
+      <c r="WDJ11" s="2"/>
+      <c r="WDN11" s="2"/>
+      <c r="WDR11" s="2"/>
+      <c r="WDV11" s="2"/>
+      <c r="WDZ11" s="2"/>
+      <c r="WED11" s="2"/>
+      <c r="WEH11" s="2"/>
+      <c r="WEL11" s="2"/>
+      <c r="WEP11" s="2"/>
+      <c r="WET11" s="2"/>
+      <c r="WEX11" s="2"/>
+      <c r="WFB11" s="2"/>
+      <c r="WFF11" s="2"/>
+      <c r="WFJ11" s="2"/>
+      <c r="WFN11" s="2"/>
+      <c r="WFR11" s="2"/>
+      <c r="WFV11" s="2"/>
+      <c r="WFZ11" s="2"/>
+      <c r="WGD11" s="2"/>
+      <c r="WGH11" s="2"/>
+      <c r="WGL11" s="2"/>
+      <c r="WGP11" s="2"/>
+      <c r="WGT11" s="2"/>
+      <c r="WGX11" s="2"/>
+      <c r="WHB11" s="2"/>
+      <c r="WHF11" s="2"/>
+      <c r="WHJ11" s="2"/>
+      <c r="WHN11" s="2"/>
+      <c r="WHR11" s="2"/>
+      <c r="WHV11" s="2"/>
+      <c r="WHZ11" s="2"/>
+      <c r="WID11" s="2"/>
+      <c r="WIH11" s="2"/>
+      <c r="WIL11" s="2"/>
+      <c r="WIP11" s="2"/>
+      <c r="WIT11" s="2"/>
+      <c r="WIX11" s="2"/>
+      <c r="WJB11" s="2"/>
+      <c r="WJF11" s="2"/>
+      <c r="WJJ11" s="2"/>
+      <c r="WJN11" s="2"/>
+      <c r="WJR11" s="2"/>
+      <c r="WJV11" s="2"/>
+      <c r="WJZ11" s="2"/>
+      <c r="WKD11" s="2"/>
+      <c r="WKH11" s="2"/>
+      <c r="WKL11" s="2"/>
+      <c r="WKP11" s="2"/>
+      <c r="WKT11" s="2"/>
+      <c r="WKX11" s="2"/>
+      <c r="WLB11" s="2"/>
+      <c r="WLF11" s="2"/>
+      <c r="WLJ11" s="2"/>
+      <c r="WLN11" s="2"/>
+      <c r="WLR11" s="2"/>
+      <c r="WLV11" s="2"/>
+      <c r="WLZ11" s="2"/>
+      <c r="WMD11" s="2"/>
+      <c r="WMH11" s="2"/>
+      <c r="WML11" s="2"/>
+      <c r="WMP11" s="2"/>
+      <c r="WMT11" s="2"/>
+      <c r="WMX11" s="2"/>
+      <c r="WNB11" s="2"/>
+      <c r="WNF11" s="2"/>
+      <c r="WNJ11" s="2"/>
+      <c r="WNN11" s="2"/>
+      <c r="WNR11" s="2"/>
+      <c r="WNV11" s="2"/>
+      <c r="WNZ11" s="2"/>
+      <c r="WOD11" s="2"/>
+      <c r="WOH11" s="2"/>
+      <c r="WOL11" s="2"/>
+      <c r="WOP11" s="2"/>
+      <c r="WOT11" s="2"/>
+      <c r="WOX11" s="2"/>
+      <c r="WPB11" s="2"/>
+      <c r="WPF11" s="2"/>
+      <c r="WPJ11" s="2"/>
+      <c r="WPN11" s="2"/>
+      <c r="WPR11" s="2"/>
+      <c r="WPV11" s="2"/>
+      <c r="WPZ11" s="2"/>
+      <c r="WQD11" s="2"/>
+      <c r="WQH11" s="2"/>
+      <c r="WQL11" s="2"/>
+      <c r="WQP11" s="2"/>
+      <c r="WQT11" s="2"/>
+      <c r="WQX11" s="2"/>
+      <c r="WRB11" s="2"/>
+      <c r="WRF11" s="2"/>
+      <c r="WRJ11" s="2"/>
+      <c r="WRN11" s="2"/>
+      <c r="WRR11" s="2"/>
+      <c r="WRV11" s="2"/>
+      <c r="WRZ11" s="2"/>
+      <c r="WSD11" s="2"/>
+      <c r="WSH11" s="2"/>
+      <c r="WSL11" s="2"/>
+      <c r="WSP11" s="2"/>
+      <c r="WST11" s="2"/>
+      <c r="WSX11" s="2"/>
+      <c r="WTB11" s="2"/>
+      <c r="WTF11" s="2"/>
+      <c r="WTJ11" s="2"/>
+      <c r="WTN11" s="2"/>
+      <c r="WTR11" s="2"/>
+      <c r="WTV11" s="2"/>
+      <c r="WTZ11" s="2"/>
+      <c r="WUD11" s="2"/>
+      <c r="WUH11" s="2"/>
+      <c r="WUL11" s="2"/>
+      <c r="WUP11" s="2"/>
+      <c r="WUT11" s="2"/>
+      <c r="WUX11" s="2"/>
+      <c r="WVB11" s="2"/>
+      <c r="WVF11" s="2"/>
+      <c r="WVJ11" s="2"/>
+      <c r="WVN11" s="2"/>
+      <c r="WVR11" s="2"/>
+      <c r="WVV11" s="2"/>
+      <c r="WVZ11" s="2"/>
+      <c r="WWD11" s="2"/>
+      <c r="WWH11" s="2"/>
+      <c r="WWL11" s="2"/>
+      <c r="WWP11" s="2"/>
+      <c r="WWT11" s="2"/>
+      <c r="WWX11" s="2"/>
+      <c r="WXB11" s="2"/>
+      <c r="WXF11" s="2"/>
+      <c r="WXJ11" s="2"/>
+      <c r="WXN11" s="2"/>
+      <c r="WXR11" s="2"/>
+      <c r="WXV11" s="2"/>
+      <c r="WXZ11" s="2"/>
+      <c r="WYD11" s="2"/>
+      <c r="WYH11" s="2"/>
+      <c r="WYL11" s="2"/>
+      <c r="WYP11" s="2"/>
+      <c r="WYT11" s="2"/>
+      <c r="WYX11" s="2"/>
+      <c r="WZB11" s="2"/>
+      <c r="WZF11" s="2"/>
+      <c r="WZJ11" s="2"/>
+      <c r="WZN11" s="2"/>
+      <c r="WZR11" s="2"/>
+      <c r="WZV11" s="2"/>
+      <c r="WZZ11" s="2"/>
+      <c r="XAD11" s="2"/>
+      <c r="XAH11" s="2"/>
+      <c r="XAL11" s="2"/>
+      <c r="XAP11" s="2"/>
+      <c r="XAT11" s="2"/>
+      <c r="XAX11" s="2"/>
+      <c r="XBB11" s="2"/>
+      <c r="XBF11" s="2"/>
+      <c r="XBJ11" s="2"/>
+      <c r="XBN11" s="2"/>
+      <c r="XBR11" s="2"/>
+      <c r="XBV11" s="2"/>
+      <c r="XBZ11" s="2"/>
+      <c r="XCD11" s="2"/>
+      <c r="XCH11" s="2"/>
+      <c r="XCL11" s="2"/>
+      <c r="XCP11" s="2"/>
+      <c r="XCT11" s="2"/>
+      <c r="XCX11" s="2"/>
+      <c r="XDB11" s="2"/>
+      <c r="XDF11" s="2"/>
+      <c r="XDJ11" s="2"/>
+      <c r="XDN11" s="2"/>
+      <c r="XDR11" s="2"/>
+      <c r="XDV11" s="2"/>
+      <c r="XDZ11" s="2"/>
+      <c r="XED11" s="2"/>
+      <c r="XEH11" s="2"/>
+      <c r="XEL11" s="2"/>
+      <c r="XEP11" s="2"/>
+      <c r="XET11" s="2"/>
+      <c r="XEX11" s="2"/>
+      <c r="XFB11" s="2"/>
+    </row>
+    <row r="12" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2">
         <v>195</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>30.5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2">
-        <v>15.8</v>
+        <v>30.5</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
+      <c r="B17" s="2">
+        <v>210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>66</v>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="2">
-        <v>210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>11.3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10.4</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
+      <c r="B23" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.5000000000000003E-20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4">
-        <v>6.5000000000000003E-20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>80100000000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>80100000000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3"/>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="3"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.2047000000000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.2047000000000001</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.8170000000000001E-5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.8170000000000001E-5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6.5E-8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6.5E-8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1367.7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1367.7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.3809999999999999E-23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1.3809999999999999E-23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>47</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>400</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/woomera_demo/parameters.xlsx
+++ b/woomera_demo/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/cholette_qut_edu_au/Documents/ASTRI/python_soiling_model/HelioSoil/woomera_demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody Anderson\Offline\GitHub\HelioSoil\woomera_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F12345C8-0D5A-4BCB-8817-388D9958DC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE3EC73-C232-494D-A840-20F6F8A922D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD6E30C-A82B-4C77-BA37-FD868F8D9E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
     <t>optical height of receiver tower</t>
   </si>
   <si>
-    <t>mie</t>
+    <t>geometry</t>
   </si>
 </sst>
 </file>
@@ -903,9 +903,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +943,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +1049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,19 +1201,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,13 +1227,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1286,18 +1286,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>50</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1311,13 +1311,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="XEX12" s="2"/>
       <c r="XFB12" s="2"/>
     </row>
-    <row r="13" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1022 1026:2046 2050:3070 3074:4094 4098:5118 5122:6142 6146:7166 7170:8190 8194:9214 9218:10238 10242:11262 11266:12286 12290:13310 13314:14334 14338:15358 15362:16382" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5566,13 +5566,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -5653,13 +5653,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>88</v>
       </c>
